--- a/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
+++ b/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
+++ b/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
+++ b/create_forecast_basic/current/Intermediates/precent_of_stat_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:C751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2504,7 +2504,7 @@
         <v>30001633</v>
       </c>
       <c r="C188" t="n">
-        <v>0.4767722865923346</v>
+        <v>0.3411043701159334</v>
       </c>
     </row>
     <row r="189">
@@ -2515,84 +2515,84 @@
         <v>30001633</v>
       </c>
       <c r="C189" t="n">
-        <v>0.5232277134076655</v>
+        <v>0.5076539868571108</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3404</v>
+        <v>3406</v>
       </c>
       <c r="B190" t="n">
-        <v>30001632</v>
+        <v>30001633</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1520843574608584</v>
+        <v>0.1356679164764012</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3405</v>
+        <v>3407</v>
       </c>
       <c r="B191" t="n">
-        <v>30001632</v>
+        <v>30001633</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8479156425391416</v>
+        <v>0.01557372655055463</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3502</v>
+        <v>3404</v>
       </c>
       <c r="B192" t="n">
-        <v>30001641</v>
+        <v>30001632</v>
       </c>
       <c r="C192" t="n">
-        <v>0.6187915958733365</v>
+        <v>0.1520843574608584</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3503</v>
+        <v>3405</v>
       </c>
       <c r="B193" t="n">
-        <v>30001641</v>
+        <v>30001632</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3812084041266635</v>
+        <v>0.8479156425391416</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="B194" t="n">
-        <v>30001642</v>
+        <v>30001641</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0.6196672964659232</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="B195" t="n">
-        <v>30001644</v>
+        <v>30001641</v>
       </c>
       <c r="C195" t="n">
-        <v>0.6483814058515834</v>
+        <v>0.3803327035340767</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3509</v>
+        <v>3408</v>
       </c>
       <c r="B196" t="n">
-        <v>30001644</v>
+        <v>30001643</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3516185941484166</v>
+        <v>0.3804354605637587</v>
       </c>
     </row>
     <row r="197">
@@ -2603,455 +2603,455 @@
         <v>30001643</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0.6195645394362412</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3507</v>
+        <v>3501</v>
       </c>
       <c r="B198" t="n">
-        <v>30001634</v>
+        <v>30001642</v>
       </c>
       <c r="C198" t="n">
-        <v>0.4168295517398493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="B199" t="n">
-        <v>30001634</v>
+        <v>30001644</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5831704482601506</v>
+        <v>0.6483814058515834</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3704</v>
+        <v>3509</v>
       </c>
       <c r="B200" t="n">
-        <v>30001214</v>
+        <v>30001644</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4271405267297088</v>
+        <v>0.3516185941484166</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3706</v>
+        <v>3507</v>
       </c>
       <c r="B201" t="n">
-        <v>30001214</v>
+        <v>30001634</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5728594732702912</v>
+        <v>0.4168295517398493</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3701</v>
+        <v>3508</v>
       </c>
       <c r="B202" t="n">
-        <v>30001216</v>
+        <v>30001634</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0.5831704482601506</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3702</v>
+        <v>3704</v>
       </c>
       <c r="B203" t="n">
-        <v>30001215</v>
+        <v>30001214</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4482724034264898</v>
+        <v>0.4271405267297088</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3703</v>
+        <v>3706</v>
       </c>
       <c r="B204" t="n">
-        <v>30001215</v>
+        <v>30001214</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3887798446321917</v>
+        <v>0.5728594732702912</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3709</v>
+        <v>3701</v>
       </c>
       <c r="B205" t="n">
-        <v>30001215</v>
+        <v>30001216</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1629477519413185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="B206" t="n">
-        <v>30001213</v>
+        <v>30001215</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0.4482724034264898</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3707</v>
+        <v>3703</v>
       </c>
       <c r="B207" t="n">
-        <v>30001217</v>
+        <v>30001215</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4310647956335756</v>
+        <v>0.3887798446321917</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="B208" t="n">
-        <v>30001217</v>
+        <v>30001215</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4087727624913362</v>
+        <v>0.1629477519413185</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3806</v>
+        <v>3705</v>
       </c>
       <c r="B209" t="n">
-        <v>30001217</v>
+        <v>30001213</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1601624418750882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3801</v>
+        <v>3707</v>
       </c>
       <c r="B210" t="n">
-        <v>30001223</v>
+        <v>30001217</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4931048833326006</v>
+        <v>0.4310647956335756</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3809</v>
+        <v>3708</v>
       </c>
       <c r="B211" t="n">
-        <v>30001223</v>
+        <v>30001217</v>
       </c>
       <c r="C211" t="n">
-        <v>0.5068951166673994</v>
+        <v>0.4087727624913362</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3802</v>
+        <v>3806</v>
       </c>
       <c r="B212" t="n">
-        <v>30001312</v>
+        <v>30001217</v>
       </c>
       <c r="C212" t="n">
-        <v>0.691856147792538</v>
+        <v>0.1601624418750882</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="B213" t="n">
-        <v>30001312</v>
+        <v>30001223</v>
       </c>
       <c r="C213" t="n">
-        <v>0.308143852207462</v>
+        <v>0.4931048833326006</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="B214" t="n">
-        <v>30001311</v>
+        <v>30001223</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0.5068951166673994</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3805</v>
+        <v>3802</v>
       </c>
       <c r="B215" t="n">
-        <v>30001222</v>
+        <v>30001312</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2932032293674956</v>
+        <v>0.691856147792538</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3807</v>
+        <v>3803</v>
       </c>
       <c r="B216" t="n">
-        <v>30001222</v>
+        <v>30001312</v>
       </c>
       <c r="C216" t="n">
-        <v>0.375027219862355</v>
+        <v>0.308143852207462</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3808</v>
+        <v>3804</v>
       </c>
       <c r="B217" t="n">
-        <v>30001222</v>
+        <v>30001311</v>
       </c>
       <c r="C217" t="n">
-        <v>0.3317695507701494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3905</v>
+        <v>3805</v>
       </c>
       <c r="B218" t="n">
-        <v>30001334</v>
+        <v>30001222</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3898240774470744</v>
+        <v>0.2932032293674956</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3909</v>
+        <v>3807</v>
       </c>
       <c r="B219" t="n">
-        <v>30001334</v>
+        <v>30001222</v>
       </c>
       <c r="C219" t="n">
-        <v>0.6101759225529256</v>
+        <v>0.375027219862355</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3906</v>
+        <v>3808</v>
       </c>
       <c r="B220" t="n">
-        <v>30001335</v>
+        <v>30001222</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5116609704914351</v>
+        <v>0.3317695507701494</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="B221" t="n">
-        <v>30001335</v>
+        <v>30001334</v>
       </c>
       <c r="C221" t="n">
-        <v>0.4883390295085649</v>
+        <v>0.3898240774470744</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="B222" t="n">
-        <v>30001346</v>
+        <v>30001334</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0.6101759225529256</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3910</v>
+        <v>3906</v>
       </c>
       <c r="B223" t="n">
-        <v>30001333</v>
+        <v>30001335</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0.5116609704914351</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3911</v>
+        <v>3907</v>
       </c>
       <c r="B224" t="n">
-        <v>30001313</v>
+        <v>30001335</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0.4883390295085649</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>4001</v>
+        <v>3908</v>
       </c>
       <c r="B225" t="n">
-        <v>30001034</v>
+        <v>30001346</v>
       </c>
       <c r="C225" t="n">
-        <v>0.6188764135441603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4011</v>
+        <v>3910</v>
       </c>
       <c r="B226" t="n">
-        <v>30001034</v>
+        <v>30001333</v>
       </c>
       <c r="C226" t="n">
-        <v>0.3811235864558397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>4002</v>
+        <v>3911</v>
       </c>
       <c r="B227" t="n">
-        <v>30001031</v>
+        <v>30001313</v>
       </c>
       <c r="C227" t="n">
-        <v>0.591004012449566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4101</v>
+        <v>4001</v>
       </c>
       <c r="B228" t="n">
-        <v>30001031</v>
+        <v>30001034</v>
       </c>
       <c r="C228" t="n">
-        <v>0.02937752401913969</v>
+        <v>0.6188764135441603</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>4104</v>
+        <v>4011</v>
       </c>
       <c r="B229" t="n">
-        <v>30001031</v>
+        <v>30001034</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3796184635312943</v>
+        <v>0.3811235864558397</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B230" t="n">
-        <v>30001043</v>
+        <v>30001031</v>
       </c>
       <c r="C230" t="n">
-        <v>0.302041513571822</v>
+        <v>0.591004012449566</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4403</v>
+        <v>4101</v>
       </c>
       <c r="B231" t="n">
-        <v>30001043</v>
+        <v>30001031</v>
       </c>
       <c r="C231" t="n">
-        <v>0.697958486428178</v>
+        <v>0.02937752401913969</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>4005</v>
+        <v>4104</v>
       </c>
       <c r="B232" t="n">
-        <v>30001035</v>
+        <v>30001031</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3076947450027115</v>
+        <v>0.3796184635312943</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="B233" t="n">
-        <v>30001035</v>
+        <v>30001043</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3076815998921645</v>
+        <v>0.302041513571822</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4007</v>
+        <v>4403</v>
       </c>
       <c r="B234" t="n">
-        <v>30001035</v>
+        <v>30001043</v>
       </c>
       <c r="C234" t="n">
-        <v>0.384623655105124</v>
+        <v>0.697958486428178</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4508</v>
+        <v>4005</v>
       </c>
       <c r="B235" t="n">
-        <v>30001122</v>
+        <v>30001035</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0.3076947450027115</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4010</v>
+        <v>4006</v>
       </c>
       <c r="B236" t="n">
-        <v>30001032</v>
+        <v>30001035</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0.3076815998921645</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>4101</v>
+        <v>4007</v>
       </c>
       <c r="B237" t="n">
-        <v>30001221</v>
+        <v>30001035</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0.384623655105124</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>4201</v>
+        <v>4508</v>
       </c>
       <c r="B238" t="n">
-        <v>30001212</v>
+        <v>30001122</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>4202</v>
+        <v>4010</v>
       </c>
       <c r="B239" t="n">
-        <v>30001211</v>
+        <v>30001032</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>4401</v>
+        <v>4101</v>
       </c>
       <c r="B240" t="n">
-        <v>30001041</v>
+        <v>30001221</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>4402</v>
+        <v>4201</v>
       </c>
       <c r="B241" t="n">
-        <v>30001042</v>
+        <v>30001212</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3092,32 +3092,32 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>4404</v>
+        <v>4202</v>
       </c>
       <c r="B242" t="n">
-        <v>30001044</v>
+        <v>30001211</v>
       </c>
       <c r="C242" t="n">
-        <v>0.6053154792558633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>4405</v>
+        <v>4401</v>
       </c>
       <c r="B243" t="n">
-        <v>30001044</v>
+        <v>30001041</v>
       </c>
       <c r="C243" t="n">
-        <v>0.3946845207441368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>4406</v>
+        <v>4402</v>
       </c>
       <c r="B244" t="n">
-        <v>30001146</v>
+        <v>30001042</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3125,32 +3125,32 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="B245" t="n">
-        <v>30001147</v>
+        <v>30001044</v>
       </c>
       <c r="C245" t="n">
-        <v>0.7446615116672047</v>
+        <v>0.6053154792558633</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="B246" t="n">
-        <v>30001147</v>
+        <v>30001044</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2553384883327953</v>
+        <v>0.3946845207441368</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>4501</v>
+        <v>4406</v>
       </c>
       <c r="B247" t="n">
-        <v>30001123</v>
+        <v>30001146</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3158,32 +3158,32 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>4502</v>
+        <v>4406</v>
       </c>
       <c r="B248" t="n">
-        <v>30001124</v>
+        <v>30001147</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0.7446615116672047</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>4503</v>
+        <v>4407</v>
       </c>
       <c r="B249" t="n">
-        <v>30001131</v>
+        <v>30001147</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0.2553384883327953</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="B250" t="n">
-        <v>30001132</v>
+        <v>30001123</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -3191,32 +3191,32 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>4607</v>
+        <v>4502</v>
       </c>
       <c r="B251" t="n">
-        <v>30001134</v>
+        <v>30001124</v>
       </c>
       <c r="C251" t="n">
-        <v>0.8995539687150202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>4608</v>
+        <v>4503</v>
       </c>
       <c r="B252" t="n">
-        <v>30001134</v>
+        <v>30001131</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1004460312849798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="B253" t="n">
-        <v>30001133</v>
+        <v>30001132</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -3224,43 +3224,43 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>4506</v>
+        <v>4607</v>
       </c>
       <c r="B254" t="n">
-        <v>30001121</v>
+        <v>30001134</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0.8995539687150202</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>4507</v>
+        <v>4608</v>
       </c>
       <c r="B255" t="n">
-        <v>30001115</v>
+        <v>30001134</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9856167005353578</v>
+        <v>0.1004460312849798</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="B256" t="n">
-        <v>30001115</v>
+        <v>30001133</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01438329946464221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>4604</v>
+        <v>4506</v>
       </c>
       <c r="B257" t="n">
-        <v>30001142</v>
+        <v>30001121</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3268,241 +3268,241 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>4601</v>
+        <v>4507</v>
       </c>
       <c r="B258" t="n">
-        <v>30001143</v>
+        <v>30001115</v>
       </c>
       <c r="C258" t="n">
-        <v>0.4938384856998302</v>
+        <v>0.9856167005353578</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>4608</v>
+        <v>4508</v>
       </c>
       <c r="B259" t="n">
-        <v>30001143</v>
+        <v>30001115</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5061615143001698</v>
+        <v>0.01438329946464221</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="B260" t="n">
-        <v>30001144</v>
+        <v>30001142</v>
       </c>
       <c r="C260" t="n">
-        <v>0.6137487221906828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>4612</v>
+        <v>4601</v>
       </c>
       <c r="B261" t="n">
-        <v>30001144</v>
+        <v>30001143</v>
       </c>
       <c r="C261" t="n">
-        <v>0.3862512778093173</v>
+        <v>0.4938384856998302</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4605</v>
+        <v>4608</v>
       </c>
       <c r="B262" t="n">
-        <v>30001141</v>
+        <v>30001143</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0.5061615143001698</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>4709</v>
+        <v>4603</v>
       </c>
       <c r="B263" t="n">
-        <v>5526</v>
+        <v>30001144</v>
       </c>
       <c r="C263" t="n">
-        <v>0.01154108355930789</v>
+        <v>0.6137487221906828</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>7511</v>
+        <v>4612</v>
       </c>
       <c r="B264" t="n">
-        <v>5526</v>
+        <v>30001144</v>
       </c>
       <c r="C264" t="n">
-        <v>0.04261979617595528</v>
+        <v>0.3862512778093173</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>7521</v>
+        <v>4605</v>
       </c>
       <c r="B265" t="n">
-        <v>5526</v>
+        <v>30001141</v>
       </c>
       <c r="C265" t="n">
-        <v>0.2110126137100763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>7531</v>
+        <v>4709</v>
       </c>
       <c r="B266" t="n">
         <v>5526</v>
       </c>
       <c r="C266" t="n">
-        <v>0.02102675977276226</v>
+        <v>0.01154108355930789</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>7641</v>
+        <v>7511</v>
       </c>
       <c r="B267" t="n">
         <v>5526</v>
       </c>
       <c r="C267" t="n">
-        <v>0.0179855124272276</v>
+        <v>0.04261979617595528</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>7642</v>
+        <v>7521</v>
       </c>
       <c r="B268" t="n">
         <v>5526</v>
       </c>
       <c r="C268" t="n">
-        <v>0.02377658619338087</v>
+        <v>0.2110126137100763</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>8311</v>
+        <v>7531</v>
       </c>
       <c r="B269" t="n">
         <v>5526</v>
       </c>
       <c r="C269" t="n">
-        <v>0.0838598047781912</v>
+        <v>0.02102675977276226</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>8312</v>
+        <v>7641</v>
       </c>
       <c r="B270" t="n">
         <v>5526</v>
       </c>
       <c r="C270" t="n">
-        <v>0.01965733022128924</v>
+        <v>0.0179855124272276</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>8313</v>
+        <v>7642</v>
       </c>
       <c r="B271" t="n">
         <v>5526</v>
       </c>
       <c r="C271" t="n">
-        <v>0.4675393799692961</v>
+        <v>0.02377658619338087</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>8501</v>
+        <v>8311</v>
       </c>
       <c r="B272" t="n">
         <v>5526</v>
       </c>
       <c r="C272" t="n">
-        <v>0.04725799414005046</v>
+        <v>0.0838598047781912</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>8502</v>
+        <v>8312</v>
       </c>
       <c r="B273" t="n">
         <v>5526</v>
       </c>
       <c r="C273" t="n">
-        <v>0.01259126769473253</v>
+        <v>0.01965733022128924</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>8506</v>
+        <v>8313</v>
       </c>
       <c r="B274" t="n">
         <v>5526</v>
       </c>
       <c r="C274" t="n">
-        <v>0.01117383074113249</v>
+        <v>0.4675393799692961</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>8508</v>
+        <v>8501</v>
       </c>
       <c r="B275" t="n">
         <v>5526</v>
       </c>
       <c r="C275" t="n">
-        <v>0.02995804061659783</v>
+        <v>0.04725799414005046</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>4701</v>
+        <v>8502</v>
       </c>
       <c r="B276" t="n">
-        <v>7790001</v>
+        <v>5526</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0.01259126769473253</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4702</v>
+        <v>8506</v>
       </c>
       <c r="B277" t="n">
-        <v>7800001</v>
+        <v>5526</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0.01117383074113249</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>4702</v>
+        <v>8508</v>
       </c>
       <c r="B278" t="n">
-        <v>30001116</v>
+        <v>5526</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0.02995804061659783</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>4709</v>
+        <v>4701</v>
       </c>
       <c r="B279" t="n">
-        <v>7830001</v>
+        <v>7790001</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,32 +3510,32 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>4709</v>
+        <v>4702</v>
       </c>
       <c r="B280" t="n">
-        <v>30001113</v>
+        <v>7800001</v>
       </c>
       <c r="C280" t="n">
-        <v>0.4687994931897371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>4714</v>
+        <v>4702</v>
       </c>
       <c r="B281" t="n">
-        <v>30001113</v>
+        <v>30001116</v>
       </c>
       <c r="C281" t="n">
-        <v>0.5312005068102629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>4717</v>
+        <v>4709</v>
       </c>
       <c r="B282" t="n">
-        <v>30001114</v>
+        <v>7830001</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -3543,285 +3543,285 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>4902</v>
+        <v>4709</v>
       </c>
       <c r="B283" t="n">
-        <v>30001012</v>
+        <v>30001113</v>
       </c>
       <c r="C283" t="n">
-        <v>0.02113496818573392</v>
+        <v>0.4687994931897371</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>4903</v>
+        <v>4714</v>
       </c>
       <c r="B284" t="n">
-        <v>30001012</v>
+        <v>30001113</v>
       </c>
       <c r="C284" t="n">
-        <v>0.6289971373351375</v>
+        <v>0.5312005068102629</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>4904</v>
+        <v>4717</v>
       </c>
       <c r="B285" t="n">
-        <v>30001012</v>
+        <v>30001114</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3498678944791285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>4905</v>
+        <v>4902</v>
       </c>
       <c r="B286" t="n">
-        <v>30001011</v>
+        <v>30001012</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0.02113496818573392</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>4906</v>
+        <v>4903</v>
       </c>
       <c r="B287" t="n">
-        <v>30001014</v>
+        <v>30001012</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8879757206602884</v>
+        <v>0.6289971373351375</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>4907</v>
+        <v>4904</v>
       </c>
       <c r="B288" t="n">
-        <v>30001014</v>
+        <v>30001012</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1120242793397116</v>
+        <v>0.3498678944791285</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>5101</v>
+        <v>4905</v>
       </c>
       <c r="B289" t="n">
-        <v>30000522</v>
+        <v>30001011</v>
       </c>
       <c r="C289" t="n">
-        <v>0.5153381018912498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>5106</v>
+        <v>4906</v>
       </c>
       <c r="B290" t="n">
-        <v>30000522</v>
+        <v>30001014</v>
       </c>
       <c r="C290" t="n">
-        <v>0.4846618981087502</v>
+        <v>0.8879757206602884</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>5102</v>
+        <v>4907</v>
       </c>
       <c r="B291" t="n">
-        <v>30000531</v>
+        <v>30001014</v>
       </c>
       <c r="C291" t="n">
-        <v>0.4483522969816604</v>
+        <v>0.1120242793397116</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>5111</v>
+        <v>5101</v>
       </c>
       <c r="B292" t="n">
-        <v>30000531</v>
+        <v>30000522</v>
       </c>
       <c r="C292" t="n">
-        <v>0.5516477030183395</v>
+        <v>0.5153381018912498</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5103</v>
+        <v>5106</v>
       </c>
       <c r="B293" t="n">
-        <v>30000532</v>
+        <v>30000522</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0.4846618981087502</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="B294" t="n">
-        <v>30000515</v>
+        <v>30000531</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0.4483522969816604</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>5105</v>
+        <v>5111</v>
       </c>
       <c r="B295" t="n">
-        <v>30000521</v>
+        <v>30000531</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0.5516477030183395</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>5107</v>
+        <v>5103</v>
       </c>
       <c r="B296" t="n">
-        <v>30000523</v>
+        <v>30000532</v>
       </c>
       <c r="C296" t="n">
-        <v>0.2757208104569047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>5108</v>
+        <v>5104</v>
       </c>
       <c r="B297" t="n">
-        <v>30000523</v>
+        <v>30000515</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7242791895430953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>5201</v>
+        <v>5105</v>
       </c>
       <c r="B298" t="n">
-        <v>30000912</v>
+        <v>30000521</v>
       </c>
       <c r="C298" t="n">
-        <v>0.6556284018706113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>5214</v>
+        <v>5107</v>
       </c>
       <c r="B299" t="n">
-        <v>30000912</v>
+        <v>30000523</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3443715981293887</v>
+        <v>0.2757208104569047</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>5201</v>
+        <v>5108</v>
       </c>
       <c r="B300" t="n">
-        <v>30000913</v>
+        <v>30000523</v>
       </c>
       <c r="C300" t="n">
-        <v>0.02080490248969362</v>
+        <v>0.7242791895430953</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>5202</v>
+        <v>5201</v>
       </c>
       <c r="B301" t="n">
-        <v>30000913</v>
+        <v>30000912</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1314257387535329</v>
+        <v>0.6556284018706113</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>5209</v>
+        <v>5214</v>
       </c>
       <c r="B302" t="n">
-        <v>30000913</v>
+        <v>30000912</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8477693587567735</v>
+        <v>0.3443715981293887</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>5208</v>
+        <v>5201</v>
       </c>
       <c r="B303" t="n">
-        <v>30000915</v>
+        <v>30000913</v>
       </c>
       <c r="C303" t="n">
-        <v>0.7957660411488324</v>
+        <v>0.02080490248969362</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>5209</v>
+        <v>5202</v>
       </c>
       <c r="B304" t="n">
-        <v>30000915</v>
+        <v>30000913</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2042339588511676</v>
+        <v>0.1314257387535329</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>5210</v>
+        <v>5209</v>
       </c>
       <c r="B305" t="n">
-        <v>30000911</v>
+        <v>30000913</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0.8477693587567735</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>5211</v>
+        <v>5208</v>
       </c>
       <c r="B306" t="n">
-        <v>30000512</v>
+        <v>30000915</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0.7957660411488324</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>5212</v>
+        <v>5209</v>
       </c>
       <c r="B307" t="n">
-        <v>30000514</v>
+        <v>30000915</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0.2042339588511676</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>5213</v>
+        <v>5210</v>
       </c>
       <c r="B308" t="n">
-        <v>30000513</v>
+        <v>30000911</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -3829,32 +3829,32 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>5301</v>
+        <v>5211</v>
       </c>
       <c r="B309" t="n">
-        <v>30000922</v>
+        <v>30000512</v>
       </c>
       <c r="C309" t="n">
-        <v>0.4963034751781027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>5304</v>
+        <v>5212</v>
       </c>
       <c r="B310" t="n">
-        <v>30000922</v>
+        <v>30000514</v>
       </c>
       <c r="C310" t="n">
-        <v>0.5036965248218972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>5302</v>
+        <v>5213</v>
       </c>
       <c r="B311" t="n">
-        <v>30001016</v>
+        <v>30000513</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3862,32 +3862,32 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="B312" t="n">
-        <v>30001015</v>
+        <v>30000922</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0.4963034751781027</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>5305</v>
+        <v>5304</v>
       </c>
       <c r="B313" t="n">
-        <v>30000923</v>
+        <v>30000922</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0.5036965248218972</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5306</v>
+        <v>5302</v>
       </c>
       <c r="B314" t="n">
-        <v>30000921</v>
+        <v>30001016</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5502</v>
+        <v>5303</v>
       </c>
       <c r="B315" t="n">
-        <v>30000933</v>
+        <v>30001015</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5504</v>
+        <v>5305</v>
       </c>
       <c r="B316" t="n">
-        <v>30000934</v>
+        <v>30000923</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>5505</v>
+        <v>5306</v>
       </c>
       <c r="B317" t="n">
-        <v>30000931</v>
+        <v>30000921</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5506</v>
+        <v>5502</v>
       </c>
       <c r="B318" t="n">
-        <v>30000932</v>
+        <v>30000933</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3939,32 +3939,32 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5605</v>
+        <v>5504</v>
       </c>
       <c r="B319" t="n">
-        <v>30000925</v>
+        <v>30000934</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9482012132754153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5606</v>
+        <v>5505</v>
       </c>
       <c r="B320" t="n">
-        <v>30000925</v>
+        <v>30000931</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0517987867245847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>5606</v>
+        <v>5506</v>
       </c>
       <c r="B321" t="n">
-        <v>7100001</v>
+        <v>30000932</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -3972,98 +3972,98 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="B322" t="n">
-        <v>30001033</v>
+        <v>30000925</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0.9482012132754153</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5701</v>
+        <v>5606</v>
       </c>
       <c r="B323" t="n">
-        <v>30000431</v>
+        <v>30000925</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1910534958399253</v>
+        <v>0.0517987867245847</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5707</v>
+        <v>5606</v>
       </c>
       <c r="B324" t="n">
-        <v>30000431</v>
+        <v>7100001</v>
       </c>
       <c r="C324" t="n">
-        <v>0.8089465041600746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5702</v>
+        <v>5606</v>
       </c>
       <c r="B325" t="n">
-        <v>30000432</v>
+        <v>30001033</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2005993111215021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5708</v>
+        <v>5701</v>
       </c>
       <c r="B326" t="n">
-        <v>30000432</v>
+        <v>30000431</v>
       </c>
       <c r="C326" t="n">
-        <v>0.7994006888784979</v>
+        <v>0.1910534958399253</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5703</v>
+        <v>5707</v>
       </c>
       <c r="B327" t="n">
-        <v>30000433</v>
+        <v>30000431</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0.8089465041600746</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>5704</v>
+        <v>5702</v>
       </c>
       <c r="B328" t="n">
-        <v>30000435</v>
+        <v>30000432</v>
       </c>
       <c r="C328" t="n">
-        <v>0.5577684886382865</v>
+        <v>0.2005993111215021</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>5705</v>
+        <v>5708</v>
       </c>
       <c r="B329" t="n">
-        <v>30000435</v>
+        <v>30000432</v>
       </c>
       <c r="C329" t="n">
-        <v>0.4422315113617135</v>
+        <v>0.7994006888784979</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5706</v>
+        <v>5703</v>
       </c>
       <c r="B330" t="n">
-        <v>30000434</v>
+        <v>30000433</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4071,54 +4071,54 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5801</v>
+        <v>5704</v>
       </c>
       <c r="B331" t="n">
-        <v>30000423</v>
+        <v>30000435</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0.5577684886382865</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5802</v>
+        <v>5705</v>
       </c>
       <c r="B332" t="n">
-        <v>30000422</v>
+        <v>30000435</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0.4422315113617135</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5803</v>
+        <v>5706</v>
       </c>
       <c r="B333" t="n">
-        <v>30000421</v>
+        <v>30000434</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3347469431333062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5804</v>
+        <v>5801</v>
       </c>
       <c r="B334" t="n">
-        <v>30000421</v>
+        <v>30000423</v>
       </c>
       <c r="C334" t="n">
-        <v>0.6652530568666938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="B335" t="n">
-        <v>30000424</v>
+        <v>30000422</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4126,32 +4126,32 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="B336" t="n">
-        <v>30000425</v>
+        <v>30000421</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0.3347469431333062</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="B337" t="n">
-        <v>30000426</v>
+        <v>30000421</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0.6652530568666938</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>5901</v>
+        <v>5805</v>
       </c>
       <c r="B338" t="n">
-        <v>30000412</v>
+        <v>30000424</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4159,46 +4159,46 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>5902</v>
+        <v>5806</v>
       </c>
       <c r="B339" t="n">
-        <v>30000411</v>
+        <v>30000425</v>
       </c>
       <c r="C339" t="n">
-        <v>0.4421583034372307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>5908</v>
+        <v>5807</v>
       </c>
       <c r="B340" t="n">
-        <v>30000411</v>
+        <v>30000426</v>
       </c>
       <c r="C340" t="n">
-        <v>0.5578416965627693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="B341" t="n">
-        <v>30000413</v>
+        <v>30000412</v>
       </c>
       <c r="C341" t="n">
-        <v>0.5296593411476092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>5906</v>
+        <v>5902</v>
       </c>
       <c r="B342" t="n">
-        <v>30000413</v>
+        <v>30000411</v>
       </c>
       <c r="C342" t="n">
-        <v>0.4531987785774521</v>
+        <v>0.4421583034372307</v>
       </c>
     </row>
     <row r="343">
@@ -4206,117 +4206,117 @@
         <v>5908</v>
       </c>
       <c r="B343" t="n">
-        <v>30000413</v>
+        <v>30000411</v>
       </c>
       <c r="C343" t="n">
-        <v>0.01714188027493883</v>
+        <v>0.5578416965627693</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>6001</v>
+        <v>5903</v>
       </c>
       <c r="B344" t="n">
-        <v>30000116</v>
+        <v>30000413</v>
       </c>
       <c r="C344" t="n">
-        <v>0.01807001657986295</v>
+        <v>0.5296593411476092</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>6003</v>
+        <v>5906</v>
       </c>
       <c r="B345" t="n">
-        <v>30000116</v>
+        <v>30000413</v>
       </c>
       <c r="C345" t="n">
-        <v>0.4152645959556437</v>
+        <v>0.4531987785774521</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>6005</v>
+        <v>5908</v>
       </c>
       <c r="B346" t="n">
-        <v>30000116</v>
+        <v>30000413</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3706009681790277</v>
+        <v>0.01714188027493883</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>6208</v>
+        <v>6001</v>
       </c>
       <c r="B347" t="n">
         <v>30000116</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1960644192854657</v>
+        <v>0.01807001657986295</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>6002</v>
+        <v>6003</v>
       </c>
       <c r="B348" t="n">
-        <v>30000113</v>
+        <v>30000116</v>
       </c>
       <c r="C348" t="n">
-        <v>0.6135147665257986</v>
+        <v>0.4152645959556437</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>6008</v>
+        <v>6005</v>
       </c>
       <c r="B349" t="n">
-        <v>30000113</v>
+        <v>30000116</v>
       </c>
       <c r="C349" t="n">
-        <v>0.3864852334742014</v>
+        <v>0.3706009681790277</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>6006</v>
+        <v>6208</v>
       </c>
       <c r="B350" t="n">
-        <v>30000115</v>
+        <v>30000116</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0.1960644192854657</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>6007</v>
+        <v>6002</v>
       </c>
       <c r="B351" t="n">
-        <v>30000114</v>
+        <v>30000113</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0.6135147665257986</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>6101</v>
+        <v>6008</v>
       </c>
       <c r="B352" t="n">
-        <v>30000111</v>
+        <v>30000113</v>
       </c>
       <c r="C352" t="n">
-        <v>1</v>
+        <v>0.3864852334742014</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>6102</v>
+        <v>6006</v>
       </c>
       <c r="B353" t="n">
-        <v>30000112</v>
+        <v>30000115</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4324,618 +4324,618 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>6200</v>
+        <v>6007</v>
       </c>
       <c r="B354" t="n">
-        <v>30000125</v>
+        <v>30000114</v>
       </c>
       <c r="C354" t="n">
-        <v>0.4413833278471522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>6201</v>
+        <v>6101</v>
       </c>
       <c r="B355" t="n">
-        <v>30000125</v>
+        <v>30000111</v>
       </c>
       <c r="C355" t="n">
-        <v>0.3041031864564986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>6203</v>
+        <v>6102</v>
       </c>
       <c r="B356" t="n">
-        <v>30000125</v>
+        <v>30000112</v>
       </c>
       <c r="C356" t="n">
-        <v>0.2545134856963492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>6206</v>
+        <v>6200</v>
       </c>
       <c r="B357" t="n">
-        <v>30000121</v>
+        <v>30000125</v>
       </c>
       <c r="C357" t="n">
-        <v>0.4154032830404228</v>
+        <v>0.4413833278471522</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>6207</v>
+        <v>6201</v>
       </c>
       <c r="B358" t="n">
-        <v>30000121</v>
+        <v>30000125</v>
       </c>
       <c r="C358" t="n">
-        <v>0.5845967169595772</v>
+        <v>0.3041031864564986</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>6205</v>
+        <v>6203</v>
       </c>
       <c r="B359" t="n">
-        <v>30000124</v>
+        <v>30000125</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0.2545134856963492</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>6305</v>
+        <v>6206</v>
       </c>
       <c r="B360" t="n">
-        <v>30000135</v>
+        <v>30000121</v>
       </c>
       <c r="C360" t="n">
-        <v>0.4150859214256759</v>
+        <v>0.4154032830404228</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>6308</v>
+        <v>6207</v>
       </c>
       <c r="B361" t="n">
-        <v>30000135</v>
+        <v>30000121</v>
       </c>
       <c r="C361" t="n">
-        <v>0.5849140785743241</v>
+        <v>0.5845967169595772</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>6209</v>
+        <v>6205</v>
       </c>
       <c r="B362" t="n">
-        <v>30000122</v>
+        <v>30000124</v>
       </c>
       <c r="C362" t="n">
-        <v>0.7204611252207903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>6210</v>
+        <v>6305</v>
       </c>
       <c r="B363" t="n">
-        <v>30000122</v>
+        <v>30000135</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2795388747792096</v>
+        <v>0.4150859214256759</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>6211</v>
+        <v>6308</v>
       </c>
       <c r="B364" t="n">
-        <v>30000123</v>
+        <v>30000135</v>
       </c>
       <c r="C364" t="n">
-        <v>0.6654871285807699</v>
+        <v>0.5849140785743241</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>6212</v>
+        <v>6209</v>
       </c>
       <c r="B365" t="n">
-        <v>30000123</v>
+        <v>30000122</v>
       </c>
       <c r="C365" t="n">
-        <v>0.3345128714192301</v>
+        <v>0.7204611252207903</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>6301</v>
+        <v>6210</v>
       </c>
       <c r="B366" t="n">
-        <v>30000132</v>
+        <v>30000122</v>
       </c>
       <c r="C366" t="n">
-        <v>0.4592322543949742</v>
+        <v>0.2795388747792096</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>6309</v>
+        <v>6211</v>
       </c>
       <c r="B367" t="n">
-        <v>30000132</v>
+        <v>30000123</v>
       </c>
       <c r="C367" t="n">
-        <v>0.5407677456050258</v>
+        <v>0.6654871285807699</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>6302</v>
+        <v>6212</v>
       </c>
       <c r="B368" t="n">
-        <v>30000131</v>
+        <v>30000123</v>
       </c>
       <c r="C368" t="n">
-        <v>0.4812018761342087</v>
+        <v>0.3345128714192301</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>6310</v>
+        <v>6301</v>
       </c>
       <c r="B369" t="n">
-        <v>30000131</v>
+        <v>30000132</v>
       </c>
       <c r="C369" t="n">
-        <v>0.5187981238657913</v>
+        <v>0.4592322543949742</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>6303</v>
+        <v>6309</v>
       </c>
       <c r="B370" t="n">
-        <v>30000133</v>
+        <v>30000132</v>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>0.5407677456050258</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>6303</v>
+        <v>6302</v>
       </c>
       <c r="B371" t="n">
-        <v>30000134</v>
+        <v>30000131</v>
       </c>
       <c r="C371" t="n">
-        <v>0.01091337753629998</v>
+        <v>0.4812018761342087</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>6304</v>
+        <v>6310</v>
       </c>
       <c r="B372" t="n">
-        <v>30000134</v>
+        <v>30000131</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9890866224637</v>
+        <v>0.5187981238657913</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>6306</v>
+        <v>6303</v>
       </c>
       <c r="B373" t="n">
-        <v>30000136</v>
+        <v>30000133</v>
       </c>
       <c r="C373" t="n">
-        <v>0.675223415712827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>6307</v>
+        <v>6303</v>
       </c>
       <c r="B374" t="n">
-        <v>30000136</v>
+        <v>30000134</v>
       </c>
       <c r="C374" t="n">
-        <v>0.324776584287173</v>
+        <v>0.01091337753629998</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>6401</v>
+        <v>6304</v>
       </c>
       <c r="B375" t="n">
-        <v>30002212</v>
+        <v>30000134</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0.9890866224637</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>6402</v>
+        <v>6306</v>
       </c>
       <c r="B376" t="n">
-        <v>30002213</v>
+        <v>30000136</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0.675223415712827</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>6507</v>
+        <v>6307</v>
       </c>
       <c r="B377" t="n">
-        <v>30002112</v>
+        <v>30000136</v>
       </c>
       <c r="C377" t="n">
-        <v>0.08706904250731821</v>
+        <v>0.324776584287173</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>6508</v>
+        <v>6401</v>
       </c>
       <c r="B378" t="n">
-        <v>30002112</v>
+        <v>30002212</v>
       </c>
       <c r="C378" t="n">
-        <v>0.123965725846975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>6509</v>
+        <v>6402</v>
       </c>
       <c r="B379" t="n">
-        <v>30002112</v>
+        <v>30002213</v>
       </c>
       <c r="C379" t="n">
-        <v>0.09421346837863603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>6510</v>
+        <v>6507</v>
       </c>
       <c r="B380" t="n">
         <v>30002112</v>
       </c>
       <c r="C380" t="n">
-        <v>0.03708558034896434</v>
+        <v>0.08706904250731821</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>6601</v>
+        <v>6508</v>
       </c>
       <c r="B381" t="n">
         <v>30002112</v>
       </c>
       <c r="C381" t="n">
-        <v>0.09831910326080512</v>
+        <v>0.123965725846975</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>6602</v>
+        <v>6509</v>
       </c>
       <c r="B382" t="n">
         <v>30002112</v>
       </c>
       <c r="C382" t="n">
-        <v>0.06498473271493363</v>
+        <v>0.09421346837863603</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>6603</v>
+        <v>6510</v>
       </c>
       <c r="B383" t="n">
         <v>30002112</v>
       </c>
       <c r="C383" t="n">
-        <v>0.07654781638441707</v>
+        <v>0.03708558034896434</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>6604</v>
+        <v>6601</v>
       </c>
       <c r="B384" t="n">
         <v>30002112</v>
       </c>
       <c r="C384" t="n">
-        <v>0.03267129703209173</v>
+        <v>0.09831910326080512</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>6605</v>
+        <v>6602</v>
       </c>
       <c r="B385" t="n">
         <v>30002112</v>
       </c>
       <c r="C385" t="n">
-        <v>0.02084221036461509</v>
+        <v>0.06498473271493363</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>6606</v>
+        <v>6603</v>
       </c>
       <c r="B386" t="n">
         <v>30002112</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1211123840851674</v>
+        <v>0.07654781638441707</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>6607</v>
+        <v>6604</v>
       </c>
       <c r="B387" t="n">
         <v>30002112</v>
       </c>
       <c r="C387" t="n">
-        <v>0.09172757153364779</v>
+        <v>0.03267129703209173</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>6609</v>
+        <v>6605</v>
       </c>
       <c r="B388" t="n">
         <v>30002112</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1265182184137528</v>
+        <v>0.02084221036461509</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>6610</v>
+        <v>6606</v>
       </c>
       <c r="B389" t="n">
         <v>30002112</v>
       </c>
       <c r="C389" t="n">
-        <v>0.02494284912867585</v>
+        <v>0.1211123840851674</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>6704</v>
+        <v>6607</v>
       </c>
       <c r="B390" t="n">
-        <v>30002111</v>
+        <v>30002112</v>
       </c>
       <c r="C390" t="n">
-        <v>0.01032600789280685</v>
+        <v>0.09172757153364779</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>6801</v>
+        <v>6609</v>
       </c>
       <c r="B391" t="n">
-        <v>30002111</v>
+        <v>30002112</v>
       </c>
       <c r="C391" t="n">
-        <v>0.5306101854851614</v>
+        <v>0.1265182184137528</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>6802</v>
+        <v>6610</v>
       </c>
       <c r="B392" t="n">
-        <v>30002111</v>
+        <v>30002112</v>
       </c>
       <c r="C392" t="n">
-        <v>0.4474226477304463</v>
+        <v>0.02494284912867585</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>6909</v>
+        <v>6704</v>
       </c>
       <c r="B393" t="n">
         <v>30002111</v>
       </c>
       <c r="C393" t="n">
-        <v>0.01164115889158549</v>
+        <v>0.01032600789280685</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>7001</v>
+        <v>6801</v>
       </c>
       <c r="B394" t="n">
-        <v>36160006</v>
+        <v>30002111</v>
       </c>
       <c r="C394" t="n">
-        <v>1</v>
+        <v>0.5306101854851614</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>7001</v>
+        <v>6802</v>
       </c>
       <c r="B395" t="n">
-        <v>36160007</v>
+        <v>30002111</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2148555799979432</v>
+        <v>0.4474226477304463</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>7002</v>
+        <v>6909</v>
       </c>
       <c r="B396" t="n">
-        <v>36160007</v>
+        <v>30002111</v>
       </c>
       <c r="C396" t="n">
-        <v>0.3206079883661633</v>
+        <v>0.01164115889158549</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="B397" t="n">
-        <v>36160007</v>
+        <v>36160006</v>
       </c>
       <c r="C397" t="n">
-        <v>0.06731915451888618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>7013</v>
+        <v>7001</v>
       </c>
       <c r="B398" t="n">
         <v>36160007</v>
       </c>
       <c r="C398" t="n">
-        <v>0.2768058970636222</v>
+        <v>0.2148555799979432</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>7024</v>
+        <v>7002</v>
       </c>
       <c r="B399" t="n">
         <v>36160007</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1204113800533851</v>
+        <v>0.3206079883661633</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="B400" t="n">
-        <v>36160008</v>
+        <v>36160007</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1957528679884488</v>
+        <v>0.06731915451888618</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>7031</v>
+        <v>7013</v>
       </c>
       <c r="B401" t="n">
-        <v>36160008</v>
+        <v>36160007</v>
       </c>
       <c r="C401" t="n">
-        <v>0.3991139741234062</v>
+        <v>0.2768058970636222</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>7032</v>
+        <v>7024</v>
       </c>
       <c r="B402" t="n">
-        <v>36160008</v>
+        <v>36160007</v>
       </c>
       <c r="C402" t="n">
-        <v>0.1934705372684054</v>
+        <v>0.1204113800533851</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>7033</v>
+        <v>7004</v>
       </c>
       <c r="B403" t="n">
         <v>36160008</v>
       </c>
       <c r="C403" t="n">
-        <v>0.02410635744182509</v>
+        <v>0.1957528679884488</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>7034</v>
+        <v>7031</v>
       </c>
       <c r="B404" t="n">
         <v>36160008</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1875562631779146</v>
+        <v>0.3991139741234062</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>7011</v>
+        <v>7032</v>
       </c>
       <c r="B405" t="n">
-        <v>36160004</v>
+        <v>36160008</v>
       </c>
       <c r="C405" t="n">
-        <v>0.563695984426187</v>
+        <v>0.1934705372684054</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>7012</v>
+        <v>7033</v>
       </c>
       <c r="B406" t="n">
-        <v>36160004</v>
+        <v>36160008</v>
       </c>
       <c r="C406" t="n">
-        <v>0.3714491039020324</v>
+        <v>0.02410635744182509</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>7021</v>
+        <v>7034</v>
       </c>
       <c r="B407" t="n">
-        <v>36160004</v>
+        <v>36160008</v>
       </c>
       <c r="C407" t="n">
-        <v>0.06485491167178062</v>
+        <v>0.1875562631779146</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="B408" t="n">
-        <v>36160005</v>
+        <v>36160004</v>
       </c>
       <c r="C408" t="n">
-        <v>0.5338142978195483</v>
+        <v>0.563695984426187</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="B409" t="n">
-        <v>36160005</v>
+        <v>36160004</v>
       </c>
       <c r="C409" t="n">
-        <v>0.4661857021804518</v>
+        <v>0.3714491039020324</v>
       </c>
     </row>
     <row r="410">
@@ -4943,172 +4943,172 @@
         <v>7021</v>
       </c>
       <c r="B410" t="n">
-        <v>36160003</v>
+        <v>36160004</v>
       </c>
       <c r="C410" t="n">
-        <v>0.4255116441624994</v>
+        <v>0.06485491167178062</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>7022</v>
+        <v>7012</v>
       </c>
       <c r="B411" t="n">
-        <v>36160003</v>
+        <v>36160005</v>
       </c>
       <c r="C411" t="n">
-        <v>0.3506717477722973</v>
+        <v>0.5338142978195483</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>7023</v>
+        <v>7014</v>
       </c>
       <c r="B412" t="n">
-        <v>36160003</v>
+        <v>36160005</v>
       </c>
       <c r="C412" t="n">
-        <v>0.2238166080652033</v>
+        <v>0.4661857021804518</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>7024</v>
+        <v>7021</v>
       </c>
       <c r="B413" t="n">
-        <v>36160002</v>
+        <v>36160003</v>
       </c>
       <c r="C413" t="n">
-        <v>0.9561223114524938</v>
+        <v>0.4255116441624994</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>7036</v>
+        <v>7022</v>
       </c>
       <c r="B414" t="n">
-        <v>36160002</v>
+        <v>36160003</v>
       </c>
       <c r="C414" t="n">
-        <v>0.04387768854750614</v>
+        <v>0.3506717477722973</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>7033</v>
+        <v>7023</v>
       </c>
       <c r="B415" t="n">
-        <v>36160010</v>
+        <v>36160003</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0.2238166080652033</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>7036</v>
+        <v>7024</v>
       </c>
       <c r="B416" t="n">
-        <v>36160009</v>
+        <v>36160002</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0.9561223114524938</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>7052</v>
+        <v>7036</v>
       </c>
       <c r="B417" t="n">
-        <v>36160001</v>
+        <v>36160002</v>
       </c>
       <c r="C417" t="n">
-        <v>0.9170583029694707</v>
+        <v>0.04387768854750614</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>7822</v>
+        <v>7033</v>
       </c>
       <c r="B418" t="n">
-        <v>36160001</v>
+        <v>36160010</v>
       </c>
       <c r="C418" t="n">
-        <v>0.08294169703052928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>7311</v>
+        <v>7036</v>
       </c>
       <c r="B419" t="n">
-        <v>36500001</v>
+        <v>36160009</v>
       </c>
       <c r="C419" t="n">
-        <v>0.2729683891274743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>7312</v>
+        <v>7052</v>
       </c>
       <c r="B420" t="n">
-        <v>36500001</v>
+        <v>36160001</v>
       </c>
       <c r="C420" t="n">
-        <v>0.2392807828998558</v>
+        <v>0.9170583029694707</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>7313</v>
+        <v>7822</v>
       </c>
       <c r="B421" t="n">
-        <v>36500001</v>
+        <v>36160001</v>
       </c>
       <c r="C421" t="n">
-        <v>0.4877508279726698</v>
+        <v>0.08294169703052928</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>7403</v>
+        <v>7311</v>
       </c>
       <c r="B422" t="n">
-        <v>37800002</v>
+        <v>36500001</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0.2729683891274743</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>7402</v>
+        <v>7312</v>
       </c>
       <c r="B423" t="n">
-        <v>37800001</v>
+        <v>36500001</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0.2392807828998558</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>7404</v>
+        <v>7313</v>
       </c>
       <c r="B424" t="n">
-        <v>37800003</v>
+        <v>36500001</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0.4877508279726698</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>7406</v>
+        <v>7403</v>
       </c>
       <c r="B425" t="n">
-        <v>37800005</v>
+        <v>37800002</v>
       </c>
       <c r="C425" t="n">
         <v>1</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>7405</v>
+        <v>7402</v>
       </c>
       <c r="B426" t="n">
-        <v>37800004</v>
+        <v>37800001</v>
       </c>
       <c r="C426" t="n">
         <v>1</v>
@@ -5127,90 +5127,90 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>7414</v>
+        <v>7404</v>
       </c>
       <c r="B427" t="n">
-        <v>37800008</v>
+        <v>37800003</v>
       </c>
       <c r="C427" t="n">
-        <v>0.0952370970246213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>7415</v>
+        <v>7406</v>
       </c>
       <c r="B428" t="n">
-        <v>37800008</v>
+        <v>37800005</v>
       </c>
       <c r="C428" t="n">
-        <v>0.2698273161905312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>7416</v>
+        <v>7405</v>
       </c>
       <c r="B429" t="n">
-        <v>37800008</v>
+        <v>37800004</v>
       </c>
       <c r="C429" t="n">
-        <v>0.156560887485154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>7417</v>
+        <v>7414</v>
       </c>
       <c r="B430" t="n">
         <v>37800008</v>
       </c>
       <c r="C430" t="n">
-        <v>0.4783746992996935</v>
+        <v>0.0952370970246213</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>7412</v>
+        <v>7415</v>
       </c>
       <c r="B431" t="n">
-        <v>37800007</v>
+        <v>37800008</v>
       </c>
       <c r="C431" t="n">
-        <v>0.6594639113306688</v>
+        <v>0.2698273161905312</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>7413</v>
+        <v>7416</v>
       </c>
       <c r="B432" t="n">
-        <v>37800007</v>
+        <v>37800008</v>
       </c>
       <c r="C432" t="n">
-        <v>0.02822748940656031</v>
+        <v>0.156560887485154</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>7414</v>
+        <v>7417</v>
       </c>
       <c r="B433" t="n">
-        <v>37800007</v>
+        <v>37800008</v>
       </c>
       <c r="C433" t="n">
-        <v>0.09119605825737193</v>
+        <v>0.4783746992996935</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>7418</v>
+        <v>7412</v>
       </c>
       <c r="B434" t="n">
         <v>37800007</v>
       </c>
       <c r="C434" t="n">
-        <v>0.221112541005399</v>
+        <v>0.6594639113306688</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>7413</v>
       </c>
       <c r="B435" t="n">
-        <v>37800006</v>
+        <v>37800007</v>
       </c>
       <c r="C435" t="n">
-        <v>0.3069239696715876</v>
+        <v>0.02822748940656031</v>
       </c>
     </row>
     <row r="436">
@@ -5229,106 +5229,106 @@
         <v>7414</v>
       </c>
       <c r="B436" t="n">
-        <v>37800006</v>
+        <v>37800007</v>
       </c>
       <c r="C436" t="n">
-        <v>0.2244018370128664</v>
+        <v>0.09119605825737193</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>7415</v>
+        <v>7418</v>
       </c>
       <c r="B437" t="n">
-        <v>37800006</v>
+        <v>37800007</v>
       </c>
       <c r="C437" t="n">
-        <v>0.1412718686538012</v>
+        <v>0.221112541005399</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>7416</v>
+        <v>7413</v>
       </c>
       <c r="B438" t="n">
         <v>37800006</v>
       </c>
       <c r="C438" t="n">
-        <v>0.3274023246617448</v>
+        <v>0.3069239696715876</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>7501</v>
+        <v>7414</v>
       </c>
       <c r="B439" t="n">
-        <v>11130001</v>
+        <v>37800006</v>
       </c>
       <c r="C439" t="n">
-        <v>0.6052554121699149</v>
+        <v>0.2244018370128664</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>7502</v>
+        <v>7415</v>
       </c>
       <c r="B440" t="n">
-        <v>11130001</v>
+        <v>37800006</v>
       </c>
       <c r="C440" t="n">
-        <v>0.2358083969769491</v>
+        <v>0.1412718686538012</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>7503</v>
+        <v>7416</v>
       </c>
       <c r="B441" t="n">
-        <v>11130001</v>
+        <v>37800006</v>
       </c>
       <c r="C441" t="n">
-        <v>0.158936190853136</v>
+        <v>0.3274023246617448</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>7511</v>
+        <v>7501</v>
       </c>
       <c r="B442" t="n">
-        <v>8230001</v>
+        <v>11130001</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0.6052554121699149</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>7511</v>
+        <v>7502</v>
       </c>
       <c r="B443" t="n">
-        <v>8250001</v>
+        <v>11130001</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0.2358083969769491</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>7512</v>
+        <v>7503</v>
       </c>
       <c r="B444" t="n">
-        <v>8220001</v>
+        <v>11130001</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0.158936190853136</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>7514</v>
+        <v>7511</v>
       </c>
       <c r="B445" t="n">
-        <v>7710001</v>
+        <v>8230001</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>7521</v>
+        <v>7511</v>
       </c>
       <c r="B446" t="n">
-        <v>4600001</v>
+        <v>8250001</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>7521</v>
+        <v>7512</v>
       </c>
       <c r="B447" t="n">
-        <v>4650001</v>
+        <v>8220001</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5358,24 +5358,24 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>7521</v>
+        <v>7514</v>
       </c>
       <c r="B448" t="n">
-        <v>7400001</v>
+        <v>7710001</v>
       </c>
       <c r="C448" t="n">
-        <v>0.01796870367634945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>8502</v>
+        <v>7521</v>
       </c>
       <c r="B449" t="n">
-        <v>7400001</v>
+        <v>4600001</v>
       </c>
       <c r="C449" t="n">
-        <v>0.9820312963236505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -5383,7 +5383,7 @@
         <v>7521</v>
       </c>
       <c r="B450" t="n">
-        <v>7870001</v>
+        <v>4650001</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5394,29 +5394,29 @@
         <v>7521</v>
       </c>
       <c r="B451" t="n">
-        <v>8590001</v>
+        <v>7400001</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0.01796870367634945</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>7521</v>
+        <v>8502</v>
       </c>
       <c r="B452" t="n">
-        <v>8860001</v>
+        <v>7400001</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0.9820312963236505</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>7531</v>
+        <v>7521</v>
       </c>
       <c r="B453" t="n">
-        <v>4560001</v>
+        <v>7870001</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>7531</v>
+        <v>7521</v>
       </c>
       <c r="B454" t="n">
-        <v>7410001</v>
+        <v>8590001</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>7531</v>
+        <v>7521</v>
       </c>
       <c r="B455" t="n">
-        <v>7510001</v>
+        <v>8860001</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5446,131 +5446,131 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>7601</v>
+        <v>7531</v>
       </c>
       <c r="B456" t="n">
-        <v>10150002</v>
+        <v>4560001</v>
       </c>
       <c r="C456" t="n">
-        <v>0.4291879373972179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>7602</v>
+        <v>7531</v>
       </c>
       <c r="B457" t="n">
-        <v>10150002</v>
+        <v>7410001</v>
       </c>
       <c r="C457" t="n">
-        <v>0.2370982930926906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>7603</v>
+        <v>7531</v>
       </c>
       <c r="B458" t="n">
-        <v>10150002</v>
+        <v>7510001</v>
       </c>
       <c r="C458" t="n">
-        <v>0.3337137695100915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>7604</v>
+        <v>7601</v>
       </c>
       <c r="B459" t="n">
-        <v>10150004</v>
+        <v>10150002</v>
       </c>
       <c r="C459" t="n">
-        <v>0.1794110573652472</v>
+        <v>0.4291879373972179</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>7605</v>
+        <v>7602</v>
       </c>
       <c r="B460" t="n">
-        <v>10150004</v>
+        <v>10150002</v>
       </c>
       <c r="C460" t="n">
-        <v>0.3497070517032182</v>
+        <v>0.2370982930926906</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>7606</v>
+        <v>7603</v>
       </c>
       <c r="B461" t="n">
-        <v>10150004</v>
+        <v>10150002</v>
       </c>
       <c r="C461" t="n">
-        <v>0.4708818909315347</v>
+        <v>0.3337137695100915</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>7611</v>
+        <v>7604</v>
       </c>
       <c r="B462" t="n">
-        <v>10150001</v>
+        <v>10150004</v>
       </c>
       <c r="C462" t="n">
-        <v>0.6933161588197432</v>
+        <v>0.1794110573652472</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>7612</v>
+        <v>7605</v>
       </c>
       <c r="B463" t="n">
-        <v>10150001</v>
+        <v>10150004</v>
       </c>
       <c r="C463" t="n">
-        <v>0.3066838411802568</v>
+        <v>0.3497070517032182</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7611</v>
+        <v>7606</v>
       </c>
       <c r="B464" t="n">
-        <v>30000436</v>
+        <v>10150004</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0.4708818909315347</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>7613</v>
+        <v>7611</v>
       </c>
       <c r="B465" t="n">
-        <v>10150003</v>
+        <v>10150001</v>
       </c>
       <c r="C465" t="n">
-        <v>0.6538400760575387</v>
+        <v>0.6933161588197432</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>7614</v>
+        <v>7612</v>
       </c>
       <c r="B466" t="n">
-        <v>10150003</v>
+        <v>10150001</v>
       </c>
       <c r="C466" t="n">
-        <v>0.3461599239424613</v>
+        <v>0.3066838411802568</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>7623</v>
+        <v>7611</v>
       </c>
       <c r="B467" t="n">
-        <v>2080001</v>
+        <v>30000436</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -5578,87 +5578,87 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>7624</v>
+        <v>7613</v>
       </c>
       <c r="B468" t="n">
-        <v>10150006</v>
+        <v>10150003</v>
       </c>
       <c r="C468" t="n">
-        <v>0.936997269531164</v>
+        <v>0.6538400760575387</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>7625</v>
+        <v>7614</v>
       </c>
       <c r="B469" t="n">
-        <v>10150006</v>
+        <v>10150003</v>
       </c>
       <c r="C469" t="n">
-        <v>0.06300273046883594</v>
+        <v>0.3461599239424613</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>7627</v>
+        <v>7623</v>
       </c>
       <c r="B470" t="n">
-        <v>10150005</v>
+        <v>2080001</v>
       </c>
       <c r="C470" t="n">
-        <v>0.6656397846913544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7628</v>
+        <v>7624</v>
       </c>
       <c r="B471" t="n">
-        <v>10150005</v>
+        <v>10150006</v>
       </c>
       <c r="C471" t="n">
-        <v>0.3343602153086456</v>
+        <v>0.936997269531164</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>7641</v>
+        <v>7625</v>
       </c>
       <c r="B472" t="n">
-        <v>780001</v>
+        <v>10150006</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0.06300273046883594</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>7641</v>
+        <v>7627</v>
       </c>
       <c r="B473" t="n">
-        <v>2860001</v>
+        <v>10150005</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0.6656397846913544</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7641</v>
+        <v>7628</v>
       </c>
       <c r="B474" t="n">
-        <v>6720001</v>
+        <v>10150005</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0.3343602153086456</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="B475" t="n">
-        <v>4050001</v>
+        <v>780001</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="B476" t="n">
-        <v>11340001</v>
+        <v>2860001</v>
       </c>
       <c r="C476" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7642</v>
+        <v>7641</v>
       </c>
       <c r="B477" t="n">
-        <v>12540001</v>
+        <v>6720001</v>
       </c>
       <c r="C477" t="n">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>7642</v>
       </c>
       <c r="B478" t="n">
-        <v>17020001</v>
+        <v>4050001</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -5699,57 +5699,57 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7651</v>
+        <v>7642</v>
       </c>
       <c r="B479" t="n">
-        <v>4720001</v>
+        <v>11340001</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9870748676883905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7661</v>
+        <v>7642</v>
       </c>
       <c r="B480" t="n">
-        <v>4720001</v>
+        <v>12540001</v>
       </c>
       <c r="C480" t="n">
-        <v>0.01292513231160947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>7651</v>
+        <v>7642</v>
       </c>
       <c r="B481" t="n">
-        <v>11370001</v>
+        <v>17020001</v>
       </c>
       <c r="C481" t="n">
-        <v>0.05272020813419238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>7661</v>
+        <v>7651</v>
       </c>
       <c r="B482" t="n">
-        <v>11370001</v>
+        <v>4720001</v>
       </c>
       <c r="C482" t="n">
-        <v>0.9472797918658076</v>
+        <v>0.9870748676883905</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>7651</v>
+        <v>7661</v>
       </c>
       <c r="B483" t="n">
-        <v>11440001</v>
+        <v>4720001</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0.01292513231160947</v>
       </c>
     </row>
     <row r="484">
@@ -5757,29 +5757,29 @@
         <v>7651</v>
       </c>
       <c r="B484" t="n">
-        <v>20390001</v>
+        <v>11370001</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0.05272020813419238</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7652</v>
+        <v>7661</v>
       </c>
       <c r="B485" t="n">
-        <v>5140001</v>
+        <v>11370001</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0.9472797918658076</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7652</v>
+        <v>7651</v>
       </c>
       <c r="B486" t="n">
-        <v>5210001</v>
+        <v>11440001</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7701</v>
+        <v>7651</v>
       </c>
       <c r="B487" t="n">
-        <v>37300002</v>
+        <v>20390001</v>
       </c>
       <c r="C487" t="n">
         <v>1</v>
@@ -5798,57 +5798,57 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7701</v>
+        <v>7652</v>
       </c>
       <c r="B488" t="n">
-        <v>37300003</v>
+        <v>5140001</v>
       </c>
       <c r="C488" t="n">
-        <v>0.2213180647907904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7703</v>
+        <v>7652</v>
       </c>
       <c r="B489" t="n">
-        <v>37300003</v>
+        <v>5210001</v>
       </c>
       <c r="C489" t="n">
-        <v>0.3150710678413758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7711</v>
+        <v>7701</v>
       </c>
       <c r="B490" t="n">
-        <v>37300003</v>
+        <v>37300002</v>
       </c>
       <c r="C490" t="n">
-        <v>0.162659435331792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7712</v>
+        <v>7701</v>
       </c>
       <c r="B491" t="n">
         <v>37300003</v>
       </c>
       <c r="C491" t="n">
-        <v>0.3009514320360417</v>
+        <v>0.2213180647907904</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>7702</v>
+        <v>7703</v>
       </c>
       <c r="B492" t="n">
-        <v>37300001</v>
+        <v>37300003</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0.3150710678413758</v>
       </c>
     </row>
     <row r="493">
@@ -5856,51 +5856,51 @@
         <v>7711</v>
       </c>
       <c r="B493" t="n">
-        <v>36440001</v>
+        <v>37300003</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0.162659435331792</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>7721</v>
+        <v>7712</v>
       </c>
       <c r="B494" t="n">
-        <v>37300004</v>
+        <v>37300003</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0.3009514320360417</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7801</v>
+        <v>7702</v>
       </c>
       <c r="B495" t="n">
-        <v>37790001</v>
+        <v>37300001</v>
       </c>
       <c r="C495" t="n">
-        <v>0.4466900456128311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7802</v>
+        <v>7711</v>
       </c>
       <c r="B496" t="n">
-        <v>37790001</v>
+        <v>36440001</v>
       </c>
       <c r="C496" t="n">
-        <v>0.5533099543871689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>8311</v>
+        <v>7721</v>
       </c>
       <c r="B497" t="n">
-        <v>6930001</v>
+        <v>37300004</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5908,24 +5908,24 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>8311</v>
+        <v>7801</v>
       </c>
       <c r="B498" t="n">
-        <v>9190001</v>
+        <v>37790001</v>
       </c>
       <c r="C498" t="n">
-        <v>0.06880373131609244</v>
+        <v>0.4466900456128311</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>8312</v>
+        <v>7802</v>
       </c>
       <c r="B499" t="n">
-        <v>9190001</v>
+        <v>37790001</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9311962686839076</v>
+        <v>0.5533099543871689</v>
       </c>
     </row>
     <row r="500">
@@ -5933,7 +5933,7 @@
         <v>8311</v>
       </c>
       <c r="B500" t="n">
-        <v>10700001</v>
+        <v>6930001</v>
       </c>
       <c r="C500" t="n">
         <v>1</v>
@@ -5944,29 +5944,29 @@
         <v>8311</v>
       </c>
       <c r="B501" t="n">
-        <v>10710001</v>
+        <v>9190001</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0.06880373131609244</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>8311</v>
+        <v>8312</v>
       </c>
       <c r="B502" t="n">
-        <v>11230001</v>
+        <v>9190001</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0.9311962686839076</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>8312</v>
+        <v>8311</v>
       </c>
       <c r="B503" t="n">
-        <v>520001</v>
+        <v>10700001</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>8312</v>
+        <v>8311</v>
       </c>
       <c r="B504" t="n">
-        <v>590001</v>
+        <v>10710001</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -5985,10 +5985,10 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>8312</v>
+        <v>8311</v>
       </c>
       <c r="B505" t="n">
-        <v>7940001</v>
+        <v>11230001</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -5999,7 +5999,7 @@
         <v>8312</v>
       </c>
       <c r="B506" t="n">
-        <v>10790001</v>
+        <v>520001</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -6010,7 +6010,7 @@
         <v>8312</v>
       </c>
       <c r="B507" t="n">
-        <v>11140001</v>
+        <v>590001</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         <v>8312</v>
       </c>
       <c r="B508" t="n">
-        <v>13250001</v>
+        <v>7940001</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -6029,10 +6029,10 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>8313</v>
+        <v>8312</v>
       </c>
       <c r="B509" t="n">
-        <v>100001</v>
+        <v>10790001</v>
       </c>
       <c r="C509" t="n">
         <v>1</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>8313</v>
+        <v>8312</v>
       </c>
       <c r="B510" t="n">
-        <v>270001</v>
+        <v>11140001</v>
       </c>
       <c r="C510" t="n">
         <v>1</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>8313</v>
+        <v>8312</v>
       </c>
       <c r="B511" t="n">
-        <v>390001</v>
+        <v>13250001</v>
       </c>
       <c r="C511" t="n">
         <v>1</v>
@@ -6065,7 +6065,7 @@
         <v>8313</v>
       </c>
       <c r="B512" t="n">
-        <v>7990001</v>
+        <v>100001</v>
       </c>
       <c r="C512" t="n">
         <v>1</v>
@@ -6073,32 +6073,32 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>8401</v>
+        <v>8313</v>
       </c>
       <c r="B513" t="n">
-        <v>26100016</v>
+        <v>270001</v>
       </c>
       <c r="C513" t="n">
-        <v>0.6306742396762344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>8402</v>
+        <v>8313</v>
       </c>
       <c r="B514" t="n">
-        <v>26100016</v>
+        <v>390001</v>
       </c>
       <c r="C514" t="n">
-        <v>0.3693257603237656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>8403</v>
+        <v>8313</v>
       </c>
       <c r="B515" t="n">
-        <v>26100015</v>
+        <v>7990001</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -6106,57 +6106,57 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>8407</v>
+        <v>8401</v>
       </c>
       <c r="B516" t="n">
-        <v>26100013</v>
+        <v>26100016</v>
       </c>
       <c r="C516" t="n">
-        <v>0.4615611487101021</v>
+        <v>0.6306742396762344</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>8408</v>
+        <v>8402</v>
       </c>
       <c r="B517" t="n">
-        <v>26100013</v>
+        <v>26100016</v>
       </c>
       <c r="C517" t="n">
-        <v>0.469349754841321</v>
+        <v>0.3693257603237656</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>8410</v>
+        <v>8403</v>
       </c>
       <c r="B518" t="n">
-        <v>26100013</v>
+        <v>26100015</v>
       </c>
       <c r="C518" t="n">
-        <v>0.06908909644857693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>8405</v>
+        <v>8407</v>
       </c>
       <c r="B519" t="n">
-        <v>26100014</v>
+        <v>26100013</v>
       </c>
       <c r="C519" t="n">
-        <v>0.4508129139644051</v>
+        <v>0.4615611487101021</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>8406</v>
+        <v>8408</v>
       </c>
       <c r="B520" t="n">
-        <v>26100014</v>
+        <v>26100013</v>
       </c>
       <c r="C520" t="n">
-        <v>0.5491870860355949</v>
+        <v>0.469349754841321</v>
       </c>
     </row>
     <row r="521">
@@ -6164,84 +6164,84 @@
         <v>8410</v>
       </c>
       <c r="B521" t="n">
-        <v>26100012</v>
+        <v>26100013</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0.06908909644857693</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>8410</v>
+        <v>8405</v>
       </c>
       <c r="B522" t="n">
-        <v>26100027</v>
+        <v>26100014</v>
       </c>
       <c r="C522" t="n">
-        <v>0.05602686118060721</v>
+        <v>0.4508129139644051</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>8411</v>
+        <v>8406</v>
       </c>
       <c r="B523" t="n">
-        <v>26100027</v>
+        <v>26100014</v>
       </c>
       <c r="C523" t="n">
-        <v>0.7498651869632835</v>
+        <v>0.5491870860355949</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>8412</v>
+        <v>8410</v>
       </c>
       <c r="B524" t="n">
-        <v>26100027</v>
+        <v>26100012</v>
       </c>
       <c r="C524" t="n">
-        <v>0.1941079518561093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>8412</v>
+        <v>8410</v>
       </c>
       <c r="B525" t="n">
-        <v>26100026</v>
+        <v>26100027</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0.05602686118060721</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>8413</v>
+        <v>8411</v>
       </c>
       <c r="B526" t="n">
-        <v>8160001</v>
+        <v>26100027</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0.7498651869632835</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>8414</v>
+        <v>8412</v>
       </c>
       <c r="B527" t="n">
-        <v>26100024</v>
+        <v>26100027</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0.1941079518561093</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>8415</v>
+        <v>8412</v>
       </c>
       <c r="B528" t="n">
-        <v>26100023</v>
+        <v>26100026</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>8415</v>
+        <v>8413</v>
       </c>
       <c r="B529" t="n">
-        <v>26100025</v>
+        <v>8160001</v>
       </c>
       <c r="C529" t="n">
         <v>1</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>8416</v>
+        <v>8414</v>
       </c>
       <c r="B530" t="n">
-        <v>26100022</v>
+        <v>26100024</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>8441</v>
+        <v>8415</v>
       </c>
       <c r="B531" t="n">
-        <v>26100031</v>
+        <v>26100023</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>8417</v>
+        <v>8415</v>
       </c>
       <c r="B532" t="n">
-        <v>26100021</v>
+        <v>26100025</v>
       </c>
       <c r="C532" t="n">
         <v>1</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>8438</v>
+        <v>8416</v>
       </c>
       <c r="B533" t="n">
-        <v>7760001</v>
+        <v>26100022</v>
       </c>
       <c r="C533" t="n">
         <v>1</v>
@@ -6304,32 +6304,32 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>8442</v>
+        <v>8441</v>
       </c>
       <c r="B534" t="n">
-        <v>26100032</v>
+        <v>26100031</v>
       </c>
       <c r="C534" t="n">
-        <v>0.9890383936548529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>8443</v>
+        <v>8417</v>
       </c>
       <c r="B535" t="n">
-        <v>26100032</v>
+        <v>26100021</v>
       </c>
       <c r="C535" t="n">
-        <v>0.01096160634514707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>8443</v>
+        <v>8438</v>
       </c>
       <c r="B536" t="n">
-        <v>26100033</v>
+        <v>7760001</v>
       </c>
       <c r="C536" t="n">
         <v>1</v>
@@ -6337,57 +6337,57 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>8449</v>
+        <v>8442</v>
       </c>
       <c r="B537" t="n">
-        <v>26100037</v>
+        <v>26100032</v>
       </c>
       <c r="C537" t="n">
-        <v>0.3436094806972314</v>
+        <v>0.9890383936548529</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>8455</v>
+        <v>8443</v>
       </c>
       <c r="B538" t="n">
-        <v>26100037</v>
+        <v>26100032</v>
       </c>
       <c r="C538" t="n">
-        <v>0.6563905193027686</v>
+        <v>0.01096160634514707</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>8451</v>
+        <v>8443</v>
       </c>
       <c r="B539" t="n">
-        <v>26100035</v>
+        <v>26100033</v>
       </c>
       <c r="C539" t="n">
-        <v>0.4768060603526763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>8454</v>
+        <v>8449</v>
       </c>
       <c r="B540" t="n">
-        <v>26100035</v>
+        <v>26100037</v>
       </c>
       <c r="C540" t="n">
-        <v>0.1838616366572713</v>
+        <v>0.3436094806972314</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>8471</v>
+        <v>8455</v>
       </c>
       <c r="B541" t="n">
-        <v>26100035</v>
+        <v>26100037</v>
       </c>
       <c r="C541" t="n">
-        <v>0.3393323029900525</v>
+        <v>0.6563905193027686</v>
       </c>
     </row>
     <row r="542">
@@ -6395,142 +6395,142 @@
         <v>8451</v>
       </c>
       <c r="B542" t="n">
-        <v>26100036</v>
+        <v>26100035</v>
       </c>
       <c r="C542" t="n">
-        <v>0.2474625555724016</v>
+        <v>0.4768060603526763</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>8452</v>
+        <v>8454</v>
       </c>
       <c r="B543" t="n">
-        <v>26100036</v>
+        <v>26100035</v>
       </c>
       <c r="C543" t="n">
-        <v>0.7525374444275984</v>
+        <v>0.1838616366572713</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>8451</v>
+        <v>8471</v>
       </c>
       <c r="B544" t="n">
-        <v>26100038</v>
+        <v>26100035</v>
       </c>
       <c r="C544" t="n">
-        <v>0.01554950805089787</v>
+        <v>0.3393323029900525</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>8452</v>
+        <v>8451</v>
       </c>
       <c r="B545" t="n">
-        <v>26100038</v>
+        <v>26100036</v>
       </c>
       <c r="C545" t="n">
-        <v>0.1076246836670606</v>
+        <v>0.2474625555724016</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>8457</v>
+        <v>8452</v>
       </c>
       <c r="B546" t="n">
-        <v>26100038</v>
+        <v>26100036</v>
       </c>
       <c r="C546" t="n">
-        <v>0.1673188783927331</v>
+        <v>0.7525374444275984</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>8458</v>
+        <v>8451</v>
       </c>
       <c r="B547" t="n">
         <v>26100038</v>
       </c>
       <c r="C547" t="n">
-        <v>0.2070208802058001</v>
+        <v>0.01554950805089787</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>8459</v>
+        <v>8452</v>
       </c>
       <c r="B548" t="n">
         <v>26100038</v>
       </c>
       <c r="C548" t="n">
-        <v>0.1675571593340907</v>
+        <v>0.1076246836670606</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>8472</v>
+        <v>8457</v>
       </c>
       <c r="B549" t="n">
         <v>26100038</v>
       </c>
       <c r="C549" t="n">
-        <v>0.3349288903494176</v>
+        <v>0.1673188783927331</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>8453</v>
+        <v>8458</v>
       </c>
       <c r="B550" t="n">
-        <v>26100034</v>
+        <v>26100038</v>
       </c>
       <c r="C550" t="n">
-        <v>0.8292576662724408</v>
+        <v>0.2070208802058001</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>8454</v>
+        <v>8459</v>
       </c>
       <c r="B551" t="n">
-        <v>26100034</v>
+        <v>26100038</v>
       </c>
       <c r="C551" t="n">
-        <v>0.1707423337275591</v>
+        <v>0.1675571593340907</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>8501</v>
+        <v>8472</v>
       </c>
       <c r="B552" t="n">
-        <v>4620001</v>
+        <v>26100038</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0.3349288903494176</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>8501</v>
+        <v>8453</v>
       </c>
       <c r="B553" t="n">
-        <v>7770001</v>
+        <v>26100034</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0.8292576662724408</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>8501</v>
+        <v>8454</v>
       </c>
       <c r="B554" t="n">
-        <v>8640001</v>
+        <v>26100034</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0.1707423337275591</v>
       </c>
     </row>
     <row r="555">
@@ -6538,7 +6538,7 @@
         <v>8501</v>
       </c>
       <c r="B555" t="n">
-        <v>12590001</v>
+        <v>4620001</v>
       </c>
       <c r="C555" t="n">
         <v>1</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>8502</v>
+        <v>8501</v>
       </c>
       <c r="B556" t="n">
-        <v>7420001</v>
+        <v>7770001</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>8503</v>
+        <v>8501</v>
       </c>
       <c r="B557" t="n">
-        <v>17010001</v>
+        <v>8640001</v>
       </c>
       <c r="C557" t="n">
         <v>1</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>8505</v>
+        <v>8501</v>
       </c>
       <c r="B558" t="n">
-        <v>8090001</v>
+        <v>12590001</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -6579,46 +6579,46 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>8506</v>
+        <v>8502</v>
       </c>
       <c r="B559" t="n">
-        <v>5670001</v>
+        <v>7420001</v>
       </c>
       <c r="C559" t="n">
-        <v>0.314114577113217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>8507</v>
+        <v>8503</v>
       </c>
       <c r="B560" t="n">
-        <v>5670001</v>
+        <v>17010001</v>
       </c>
       <c r="C560" t="n">
-        <v>0.673462453278967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>8508</v>
+        <v>8505</v>
       </c>
       <c r="B561" t="n">
-        <v>5670001</v>
+        <v>8090001</v>
       </c>
       <c r="C561" t="n">
-        <v>0.01242296960781595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>8507</v>
+        <v>8506</v>
       </c>
       <c r="B562" t="n">
-        <v>4930001</v>
+        <v>5670001</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0.314114577113217</v>
       </c>
     </row>
     <row r="563">
@@ -6626,21 +6626,21 @@
         <v>8507</v>
       </c>
       <c r="B563" t="n">
-        <v>5660001</v>
+        <v>5670001</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0.673462453278967</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>8507</v>
+        <v>8508</v>
       </c>
       <c r="B564" t="n">
-        <v>8050001</v>
+        <v>5670001</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0.01242296960781595</v>
       </c>
     </row>
     <row r="565">
@@ -6648,7 +6648,7 @@
         <v>8507</v>
       </c>
       <c r="B565" t="n">
-        <v>26100011</v>
+        <v>4930001</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>8508</v>
+        <v>8507</v>
       </c>
       <c r="B566" t="n">
-        <v>3640001</v>
+        <v>5660001</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>8508</v>
+        <v>8507</v>
       </c>
       <c r="B567" t="n">
-        <v>4640001</v>
+        <v>8050001</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>8508</v>
+        <v>8507</v>
       </c>
       <c r="B568" t="n">
-        <v>7520001</v>
+        <v>26100011</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -6692,7 +6692,7 @@
         <v>8508</v>
       </c>
       <c r="B569" t="n">
-        <v>7780001</v>
+        <v>3640001</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -6703,7 +6703,7 @@
         <v>8508</v>
       </c>
       <c r="B570" t="n">
-        <v>7960001</v>
+        <v>4640001</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -6714,7 +6714,7 @@
         <v>8508</v>
       </c>
       <c r="B571" t="n">
-        <v>10430001</v>
+        <v>7520001</v>
       </c>
       <c r="C571" t="n">
         <v>1</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>8513</v>
+        <v>8508</v>
       </c>
       <c r="B572" t="n">
-        <v>6700001</v>
+        <v>7780001</v>
       </c>
       <c r="C572" t="n">
         <v>1</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>8513</v>
+        <v>8508</v>
       </c>
       <c r="B573" t="n">
-        <v>20100001</v>
+        <v>7960001</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -6744,10 +6744,10 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>8514</v>
+        <v>8508</v>
       </c>
       <c r="B574" t="n">
-        <v>8560001</v>
+        <v>10430001</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>8514</v>
+        <v>8513</v>
       </c>
       <c r="B575" t="n">
-        <v>13330001</v>
+        <v>6700001</v>
       </c>
       <c r="C575" t="n">
         <v>1</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>8601</v>
+        <v>8513</v>
       </c>
       <c r="B576" t="n">
-        <v>12000014</v>
+        <v>20100001</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>8602</v>
+        <v>8514</v>
       </c>
       <c r="B577" t="n">
-        <v>12000016</v>
+        <v>8560001</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>8603</v>
+        <v>8514</v>
       </c>
       <c r="B578" t="n">
-        <v>12000017</v>
+        <v>13330001</v>
       </c>
       <c r="C578" t="n">
         <v>1</v>
@@ -6799,10 +6799,10 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>8604</v>
+        <v>8601</v>
       </c>
       <c r="B579" t="n">
-        <v>12000011</v>
+        <v>12000014</v>
       </c>
       <c r="C579" t="n">
         <v>1</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>8605</v>
+        <v>8602</v>
       </c>
       <c r="B580" t="n">
-        <v>12000015</v>
+        <v>12000016</v>
       </c>
       <c r="C580" t="n">
         <v>1</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>8606</v>
+        <v>8603</v>
       </c>
       <c r="B581" t="n">
-        <v>12000012</v>
+        <v>12000017</v>
       </c>
       <c r="C581" t="n">
         <v>1</v>
@@ -6832,87 +6832,87 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>8606</v>
+        <v>8604</v>
       </c>
       <c r="B582" t="n">
-        <v>12000042</v>
+        <v>12000011</v>
       </c>
       <c r="C582" t="n">
-        <v>0.01488138603725991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>8633</v>
+        <v>8605</v>
       </c>
       <c r="B583" t="n">
-        <v>12000042</v>
+        <v>12000015</v>
       </c>
       <c r="C583" t="n">
-        <v>0.9851186139627401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>8611</v>
+        <v>8606</v>
       </c>
       <c r="B584" t="n">
-        <v>12000021</v>
+        <v>12000012</v>
       </c>
       <c r="C584" t="n">
-        <v>0.989838130259454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>8612</v>
+        <v>8606</v>
       </c>
       <c r="B585" t="n">
-        <v>12000021</v>
+        <v>12000042</v>
       </c>
       <c r="C585" t="n">
-        <v>0.01016186974054598</v>
+        <v>0.01488138603725991</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>8612</v>
+        <v>8633</v>
       </c>
       <c r="B586" t="n">
-        <v>12000022</v>
+        <v>12000042</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0.9851186139627401</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8613</v>
+        <v>8611</v>
       </c>
       <c r="B587" t="n">
-        <v>12000026</v>
+        <v>12000021</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0.989838130259454</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>8616</v>
+        <v>8612</v>
       </c>
       <c r="B588" t="n">
-        <v>12000023</v>
+        <v>12000021</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0.01016186974054598</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8621</v>
+        <v>8612</v>
       </c>
       <c r="B589" t="n">
-        <v>12000013</v>
+        <v>12000022</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -6920,87 +6920,87 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>8622</v>
+        <v>8613</v>
       </c>
       <c r="B590" t="n">
-        <v>12000033</v>
+        <v>12000026</v>
       </c>
       <c r="C590" t="n">
-        <v>0.9508220477151288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>8641</v>
+        <v>8616</v>
       </c>
       <c r="B591" t="n">
-        <v>12000033</v>
+        <v>12000023</v>
       </c>
       <c r="C591" t="n">
-        <v>0.04917795228487121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>8624</v>
+        <v>8621</v>
       </c>
       <c r="B592" t="n">
-        <v>12000031</v>
+        <v>12000013</v>
       </c>
       <c r="C592" t="n">
-        <v>0.3873198636871924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>8625</v>
+        <v>8622</v>
       </c>
       <c r="B593" t="n">
-        <v>12000031</v>
+        <v>12000033</v>
       </c>
       <c r="C593" t="n">
-        <v>0.6126801363128076</v>
+        <v>0.9508220477151288</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>8624</v>
+        <v>8641</v>
       </c>
       <c r="B594" t="n">
-        <v>12000032</v>
+        <v>12000033</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0.04917795228487121</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>8626</v>
+        <v>8624</v>
       </c>
       <c r="B595" t="n">
-        <v>12000024</v>
+        <v>12000031</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0.3873198636871924</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>8627</v>
+        <v>8625</v>
       </c>
       <c r="B596" t="n">
-        <v>12000025</v>
+        <v>12000031</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0.6126801363128076</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>8631</v>
+        <v>8624</v>
       </c>
       <c r="B597" t="n">
-        <v>12000043</v>
+        <v>12000032</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -7008,112 +7008,112 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>8632</v>
+        <v>8626</v>
       </c>
       <c r="B598" t="n">
-        <v>12000034</v>
+        <v>12000024</v>
       </c>
       <c r="C598" t="n">
-        <v>0.01020650332214786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>8641</v>
+        <v>8627</v>
       </c>
       <c r="B599" t="n">
-        <v>12000034</v>
+        <v>12000025</v>
       </c>
       <c r="C599" t="n">
-        <v>0.9897934966778521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>8632</v>
+        <v>8631</v>
       </c>
       <c r="B600" t="n">
-        <v>12000041</v>
+        <v>12000043</v>
       </c>
       <c r="C600" t="n">
-        <v>0.9838962773722149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>8633</v>
+        <v>8632</v>
       </c>
       <c r="B601" t="n">
-        <v>12000041</v>
+        <v>12000034</v>
       </c>
       <c r="C601" t="n">
-        <v>0.01610372262778512</v>
+        <v>0.01020650332214786</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>8651</v>
+        <v>8641</v>
       </c>
       <c r="B602" t="n">
-        <v>11660001</v>
+        <v>12000034</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0.9897934966778521</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>8651</v>
+        <v>8632</v>
       </c>
       <c r="B603" t="n">
-        <v>13100001</v>
+        <v>12000041</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0.9838962773722149</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>8653</v>
+        <v>8633</v>
       </c>
       <c r="B604" t="n">
-        <v>11650001</v>
+        <v>12000041</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0.01610372262778512</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>8661</v>
+        <v>8651</v>
       </c>
       <c r="B605" t="n">
-        <v>37970003</v>
+        <v>11660001</v>
       </c>
       <c r="C605" t="n">
-        <v>0.309303923772669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>8662</v>
+        <v>8651</v>
       </c>
       <c r="B606" t="n">
-        <v>37970003</v>
+        <v>13100001</v>
       </c>
       <c r="C606" t="n">
-        <v>0.4030663963237339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>8665</v>
+        <v>8653</v>
       </c>
       <c r="B607" t="n">
-        <v>37970003</v>
+        <v>11650001</v>
       </c>
       <c r="C607" t="n">
-        <v>0.2876296799035971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -7121,10 +7121,10 @@
         <v>8661</v>
       </c>
       <c r="B608" t="n">
-        <v>37970004</v>
+        <v>37970003</v>
       </c>
       <c r="C608" t="n">
-        <v>0.3677732512784953</v>
+        <v>0.309303923772669</v>
       </c>
     </row>
     <row r="609">
@@ -7132,21 +7132,21 @@
         <v>8662</v>
       </c>
       <c r="B609" t="n">
-        <v>37970004</v>
+        <v>37970003</v>
       </c>
       <c r="C609" t="n">
-        <v>0.6322267487215047</v>
+        <v>0.4030663963237339</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>8661</v>
+        <v>8665</v>
       </c>
       <c r="B610" t="n">
-        <v>37970005</v>
+        <v>37970003</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0.2876296799035971</v>
       </c>
     </row>
     <row r="611">
@@ -7154,21 +7154,21 @@
         <v>8661</v>
       </c>
       <c r="B611" t="n">
-        <v>37970006</v>
+        <v>37970004</v>
       </c>
       <c r="C611" t="n">
-        <v>0.957423077214736</v>
+        <v>0.3677732512784953</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>8671</v>
+        <v>8662</v>
       </c>
       <c r="B612" t="n">
-        <v>37970006</v>
+        <v>37970004</v>
       </c>
       <c r="C612" t="n">
-        <v>0.04257692278526402</v>
+        <v>0.6322267487215047</v>
       </c>
     </row>
     <row r="613">
@@ -7176,84 +7176,84 @@
         <v>8661</v>
       </c>
       <c r="B613" t="n">
-        <v>37970009</v>
+        <v>37970005</v>
       </c>
       <c r="C613" t="n">
-        <v>0.1856014511008394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>8662</v>
+        <v>8661</v>
       </c>
       <c r="B614" t="n">
-        <v>37970009</v>
+        <v>37970006</v>
       </c>
       <c r="C614" t="n">
-        <v>0.8143985488991606</v>
+        <v>0.957423077214736</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>8663</v>
+        <v>8671</v>
       </c>
       <c r="B615" t="n">
-        <v>37970002</v>
+        <v>37970006</v>
       </c>
       <c r="C615" t="n">
-        <v>0.9830741854225112</v>
+        <v>0.04257692278526402</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>8664</v>
+        <v>8661</v>
       </c>
       <c r="B616" t="n">
-        <v>37970002</v>
+        <v>37970009</v>
       </c>
       <c r="C616" t="n">
-        <v>0.01692581457748872</v>
+        <v>0.1856014511008394</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>8664</v>
+        <v>8662</v>
       </c>
       <c r="B617" t="n">
-        <v>37970010</v>
+        <v>37970009</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>0.8143985488991606</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>8665</v>
+        <v>8663</v>
       </c>
       <c r="B618" t="n">
-        <v>37970008</v>
+        <v>37970002</v>
       </c>
       <c r="C618" t="n">
-        <v>0.1118950366403909</v>
+        <v>0.9830741854225112</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>8666</v>
+        <v>8664</v>
       </c>
       <c r="B619" t="n">
-        <v>37970008</v>
+        <v>37970002</v>
       </c>
       <c r="C619" t="n">
-        <v>0.8881049633596091</v>
+        <v>0.01692581457748872</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>8666</v>
+        <v>8664</v>
       </c>
       <c r="B620" t="n">
-        <v>37970007</v>
+        <v>37970010</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -7261,32 +7261,32 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>8822</v>
+        <v>8665</v>
       </c>
       <c r="B621" t="n">
-        <v>35700001</v>
+        <v>37970008</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0.1118950366403909</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>8822</v>
+        <v>8666</v>
       </c>
       <c r="B622" t="n">
-        <v>35700002</v>
+        <v>37970008</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>0.8881049633596091</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>8822</v>
+        <v>8666</v>
       </c>
       <c r="B623" t="n">
-        <v>35700003</v>
+        <v>37970007</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -7294,10 +7294,10 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>8824</v>
+        <v>8822</v>
       </c>
       <c r="B624" t="n">
-        <v>35700004</v>
+        <v>35700001</v>
       </c>
       <c r="C624" t="n">
         <v>1</v>
@@ -7305,10 +7305,10 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>8824</v>
+        <v>8822</v>
       </c>
       <c r="B625" t="n">
-        <v>35700005</v>
+        <v>35700002</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>8831</v>
+        <v>8822</v>
       </c>
       <c r="B626" t="n">
-        <v>35600001</v>
+        <v>35700003</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -7327,10 +7327,10 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>8831</v>
+        <v>8824</v>
       </c>
       <c r="B627" t="n">
-        <v>37780001</v>
+        <v>35700004</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -7338,10 +7338,10 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>8831</v>
+        <v>8824</v>
       </c>
       <c r="B628" t="n">
-        <v>37200001</v>
+        <v>35700005</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>7851</v>
+        <v>8831</v>
       </c>
       <c r="B629" t="n">
-        <v>35650001</v>
+        <v>35600001</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -7360,10 +7360,10 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>7851</v>
+        <v>8831</v>
       </c>
       <c r="B630" t="n">
-        <v>35640001</v>
+        <v>37780001</v>
       </c>
       <c r="C630" t="n">
         <v>1</v>
@@ -7371,10 +7371,10 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8852</v>
+        <v>8831</v>
       </c>
       <c r="B631" t="n">
-        <v>35680001</v>
+        <v>37200001</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -7382,10 +7382,10 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8852</v>
+        <v>7851</v>
       </c>
       <c r="B632" t="n">
-        <v>36490001</v>
+        <v>35650001</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -7393,10 +7393,10 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8852</v>
+        <v>7851</v>
       </c>
       <c r="B633" t="n">
-        <v>17920001</v>
+        <v>35640001</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>8852</v>
       </c>
       <c r="B634" t="n">
-        <v>36430001</v>
+        <v>35680001</v>
       </c>
       <c r="C634" t="n">
         <v>1</v>
@@ -7415,10 +7415,10 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>8864</v>
+        <v>8852</v>
       </c>
       <c r="B635" t="n">
-        <v>35980001</v>
+        <v>36490001</v>
       </c>
       <c r="C635" t="n">
         <v>1</v>
@@ -7426,10 +7426,10 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>8864</v>
+        <v>8852</v>
       </c>
       <c r="B636" t="n">
-        <v>35990001</v>
+        <v>17920001</v>
       </c>
       <c r="C636" t="n">
         <v>1</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>8864</v>
+        <v>8852</v>
       </c>
       <c r="B637" t="n">
-        <v>37820001</v>
+        <v>36430001</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>8864</v>
       </c>
       <c r="B638" t="n">
-        <v>36460001</v>
+        <v>35980001</v>
       </c>
       <c r="C638" t="n">
         <v>1</v>
@@ -7462,7 +7462,7 @@
         <v>8864</v>
       </c>
       <c r="B639" t="n">
-        <v>37850001</v>
+        <v>35990001</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
         <v>8864</v>
       </c>
       <c r="B640" t="n">
-        <v>35780001</v>
+        <v>37820001</v>
       </c>
       <c r="C640" t="n">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>8864</v>
       </c>
       <c r="B641" t="n">
-        <v>36120001</v>
+        <v>36460001</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -7495,7 +7495,7 @@
         <v>8864</v>
       </c>
       <c r="B642" t="n">
-        <v>36190001</v>
+        <v>37850001</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>8101</v>
+        <v>8864</v>
       </c>
       <c r="B643" t="n">
-        <v>36110001</v>
+        <v>35780001</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -7514,10 +7514,10 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>8861</v>
+        <v>8864</v>
       </c>
       <c r="B644" t="n">
-        <v>36200001</v>
+        <v>36120001</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -7525,10 +7525,10 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>8861</v>
+        <v>8864</v>
       </c>
       <c r="B645" t="n">
-        <v>38250001</v>
+        <v>36190001</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>8861</v>
+        <v>8101</v>
       </c>
       <c r="B646" t="n">
-        <v>36050001</v>
+        <v>36110001</v>
       </c>
       <c r="C646" t="n">
         <v>1</v>
@@ -7550,7 +7550,7 @@
         <v>8861</v>
       </c>
       <c r="B647" t="n">
-        <v>36060001</v>
+        <v>36200001</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>8861</v>
       </c>
       <c r="B648" t="n">
-        <v>35550001</v>
+        <v>38250001</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -7572,7 +7572,7 @@
         <v>8861</v>
       </c>
       <c r="B649" t="n">
-        <v>35660001</v>
+        <v>36050001</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -7583,7 +7583,7 @@
         <v>8861</v>
       </c>
       <c r="B650" t="n">
-        <v>36150001</v>
+        <v>36060001</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>8861</v>
       </c>
       <c r="B651" t="n">
-        <v>17930001</v>
+        <v>35550001</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         <v>8861</v>
       </c>
       <c r="B652" t="n">
-        <v>36070001</v>
+        <v>35660001</v>
       </c>
       <c r="C652" t="n">
         <v>1</v>
@@ -7616,7 +7616,7 @@
         <v>8861</v>
       </c>
       <c r="B653" t="n">
-        <v>37130001</v>
+        <v>36150001</v>
       </c>
       <c r="C653" t="n">
         <v>1</v>
@@ -7627,7 +7627,7 @@
         <v>8861</v>
       </c>
       <c r="B654" t="n">
-        <v>35580001</v>
+        <v>17930001</v>
       </c>
       <c r="C654" t="n">
         <v>1</v>
@@ -7635,10 +7635,10 @@
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>7826</v>
+        <v>8861</v>
       </c>
       <c r="B655" t="n">
-        <v>36450001</v>
+        <v>36070001</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -7646,10 +7646,10 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>7826</v>
+        <v>8861</v>
       </c>
       <c r="B656" t="n">
-        <v>36010001</v>
+        <v>37130001</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>7826</v>
+        <v>8861</v>
       </c>
       <c r="B657" t="n">
-        <v>35560001</v>
+        <v>35580001</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -7668,10 +7668,10 @@
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>7802</v>
+        <v>7826</v>
       </c>
       <c r="B658" t="n">
-        <v>36590001</v>
+        <v>36450001</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -7679,10 +7679,10 @@
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>8142</v>
+        <v>7826</v>
       </c>
       <c r="B659" t="n">
-        <v>37450001</v>
+        <v>36010001</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>8142</v>
+        <v>7826</v>
       </c>
       <c r="B660" t="n">
-        <v>37560001</v>
+        <v>35560001</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -7701,10 +7701,10 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>8142</v>
+        <v>7802</v>
       </c>
       <c r="B661" t="n">
-        <v>36560001</v>
+        <v>36590001</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -7715,7 +7715,7 @@
         <v>8142</v>
       </c>
       <c r="B662" t="n">
-        <v>36570001</v>
+        <v>37450001</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -7726,7 +7726,7 @@
         <v>8142</v>
       </c>
       <c r="B663" t="n">
-        <v>37230001</v>
+        <v>37560001</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -7734,10 +7734,10 @@
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>8832</v>
+        <v>8142</v>
       </c>
       <c r="B664" t="n">
-        <v>37500001</v>
+        <v>36560001</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>8882</v>
+        <v>8142</v>
       </c>
       <c r="B665" t="n">
-        <v>37510001</v>
+        <v>36570001</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>8882</v>
+        <v>8142</v>
       </c>
       <c r="B666" t="n">
-        <v>37650001</v>
+        <v>37230001</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>8882</v>
+        <v>8832</v>
       </c>
       <c r="B667" t="n">
-        <v>36410001</v>
+        <v>37500001</v>
       </c>
       <c r="C667" t="n">
         <v>1</v>
@@ -7781,7 +7781,7 @@
         <v>8882</v>
       </c>
       <c r="B668" t="n">
-        <v>35720001</v>
+        <v>37510001</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>8882</v>
       </c>
       <c r="B669" t="n">
-        <v>38240001</v>
+        <v>37650001</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -7803,7 +7803,7 @@
         <v>8882</v>
       </c>
       <c r="B670" t="n">
-        <v>38220001</v>
+        <v>36410001</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -7811,10 +7811,10 @@
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>8871</v>
+        <v>8882</v>
       </c>
       <c r="B671" t="n">
-        <v>37620001</v>
+        <v>35720001</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -7822,10 +7822,10 @@
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>8871</v>
+        <v>8882</v>
       </c>
       <c r="B672" t="n">
-        <v>35790001</v>
+        <v>38240001</v>
       </c>
       <c r="C672" t="n">
         <v>1</v>
@@ -7833,10 +7833,10 @@
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>8871</v>
+        <v>8882</v>
       </c>
       <c r="B673" t="n">
-        <v>37100001</v>
+        <v>38220001</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -7847,7 +7847,7 @@
         <v>8871</v>
       </c>
       <c r="B674" t="n">
-        <v>37490001</v>
+        <v>37620001</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -7855,10 +7855,10 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>8810</v>
+        <v>8871</v>
       </c>
       <c r="B675" t="n">
-        <v>37680001</v>
+        <v>35790001</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -7866,10 +7866,10 @@
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>8810</v>
+        <v>8871</v>
       </c>
       <c r="B676" t="n">
-        <v>37270001</v>
+        <v>37100001</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -7877,10 +7877,10 @@
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>8810</v>
+        <v>8871</v>
       </c>
       <c r="B677" t="n">
-        <v>37440001</v>
+        <v>37490001</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>7631</v>
+        <v>8810</v>
       </c>
       <c r="B678" t="n">
-        <v>37690001</v>
+        <v>37680001</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>7321</v>
+        <v>8810</v>
       </c>
       <c r="B679" t="n">
-        <v>35630001</v>
+        <v>37270001</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>7321</v>
+        <v>8810</v>
       </c>
       <c r="B680" t="n">
-        <v>37260001</v>
+        <v>37440001</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -7921,10 +7921,10 @@
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>7301</v>
+        <v>7631</v>
       </c>
       <c r="B681" t="n">
-        <v>36020001</v>
+        <v>37690001</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -7932,10 +7932,10 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>7301</v>
+        <v>7321</v>
       </c>
       <c r="B682" t="n">
-        <v>37940001</v>
+        <v>35630001</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -7943,10 +7943,10 @@
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>7301</v>
+        <v>7321</v>
       </c>
       <c r="B683" t="n">
-        <v>34880001</v>
+        <v>37260001</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>7301</v>
       </c>
       <c r="B684" t="n">
-        <v>35610001</v>
+        <v>36020001</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -7968,7 +7968,7 @@
         <v>7301</v>
       </c>
       <c r="B685" t="n">
-        <v>36040001</v>
+        <v>37940001</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -7976,10 +7976,10 @@
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>8862</v>
+        <v>7301</v>
       </c>
       <c r="B686" t="n">
-        <v>36080001</v>
+        <v>34880001</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -7987,10 +7987,10 @@
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>7841</v>
+        <v>7301</v>
       </c>
       <c r="B687" t="n">
-        <v>36170001</v>
+        <v>35610001</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>7822</v>
+        <v>7301</v>
       </c>
       <c r="B688" t="n">
-        <v>36380001</v>
+        <v>36040001</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -8009,10 +8009,10 @@
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>8843</v>
+        <v>8862</v>
       </c>
       <c r="B689" t="n">
-        <v>37120001</v>
+        <v>36080001</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -8020,10 +8020,10 @@
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>8843</v>
+        <v>7841</v>
       </c>
       <c r="B690" t="n">
-        <v>35710001</v>
+        <v>36170001</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -8031,10 +8031,10 @@
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>8843</v>
+        <v>7822</v>
       </c>
       <c r="B691" t="n">
-        <v>37930001</v>
+        <v>36380001</v>
       </c>
       <c r="C691" t="n">
         <v>1</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>8121</v>
+        <v>8843</v>
       </c>
       <c r="B692" t="n">
-        <v>37190001</v>
+        <v>37120001</v>
       </c>
       <c r="C692" t="n">
         <v>1</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>8121</v>
+        <v>8843</v>
       </c>
       <c r="B693" t="n">
-        <v>37590001</v>
+        <v>35710001</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>7302</v>
+        <v>8843</v>
       </c>
       <c r="B694" t="n">
-        <v>37250001</v>
+        <v>37930001</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -8075,10 +8075,10 @@
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>7302</v>
+        <v>8121</v>
       </c>
       <c r="B695" t="n">
-        <v>36180001</v>
+        <v>37190001</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -8086,10 +8086,10 @@
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>8673</v>
+        <v>8121</v>
       </c>
       <c r="B696" t="n">
-        <v>37700001</v>
+        <v>37590001</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -8097,10 +8097,10 @@
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>7827</v>
+        <v>7302</v>
       </c>
       <c r="B697" t="n">
-        <v>37860001</v>
+        <v>37250001</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -8108,10 +8108,10 @@
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>7827</v>
+        <v>7302</v>
       </c>
       <c r="B698" t="n">
-        <v>36100001</v>
+        <v>36180001</v>
       </c>
       <c r="C698" t="n">
         <v>1</v>
@@ -8119,10 +8119,10 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>8841</v>
+        <v>8673</v>
       </c>
       <c r="B699" t="n">
-        <v>35570001</v>
+        <v>37700001</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -8130,10 +8130,10 @@
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>8693</v>
+        <v>7827</v>
       </c>
       <c r="B700" t="n">
-        <v>35730001</v>
+        <v>37860001</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -8141,10 +8141,10 @@
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>8693</v>
+        <v>7827</v>
       </c>
       <c r="B701" t="n">
-        <v>36580001</v>
+        <v>36100001</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>8863</v>
+        <v>8841</v>
       </c>
       <c r="B702" t="n">
-        <v>36090001</v>
+        <v>35570001</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -8163,10 +8163,10 @@
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>8863</v>
+        <v>8693</v>
       </c>
       <c r="B703" t="n">
-        <v>36130001</v>
+        <v>35730001</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>8863</v>
+        <v>8693</v>
       </c>
       <c r="B704" t="n">
-        <v>36140001</v>
+        <v>36580001</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -8185,10 +8185,10 @@
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>8815</v>
+        <v>8863</v>
       </c>
       <c r="B705" t="n">
-        <v>36600001</v>
+        <v>36090001</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -8196,10 +8196,10 @@
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>8851</v>
+        <v>8863</v>
       </c>
       <c r="B706" t="n">
-        <v>37170001</v>
+        <v>36130001</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>8851</v>
+        <v>8863</v>
       </c>
       <c r="B707" t="n">
-        <v>35690001</v>
+        <v>36140001</v>
       </c>
       <c r="C707" t="n">
         <v>1</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>8691</v>
+        <v>8815</v>
       </c>
       <c r="B708" t="n">
-        <v>37470001</v>
+        <v>36600001</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -8229,10 +8229,10 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>8691</v>
+        <v>8851</v>
       </c>
       <c r="B709" t="n">
-        <v>37880001</v>
+        <v>37170001</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -8240,10 +8240,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>8691</v>
+        <v>8851</v>
       </c>
       <c r="B710" t="n">
-        <v>37670001</v>
+        <v>35690001</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -8251,10 +8251,10 @@
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>8834</v>
+        <v>8691</v>
       </c>
       <c r="B711" t="n">
-        <v>37600001</v>
+        <v>37470001</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -8262,10 +8262,10 @@
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>8141</v>
+        <v>8691</v>
       </c>
       <c r="B712" t="n">
-        <v>37770001</v>
+        <v>37880001</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -8273,10 +8273,10 @@
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>8141</v>
+        <v>8691</v>
       </c>
       <c r="B713" t="n">
-        <v>37220001</v>
+        <v>37670001</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -8284,10 +8284,10 @@
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>8141</v>
+        <v>8834</v>
       </c>
       <c r="B714" t="n">
-        <v>37430001</v>
+        <v>37600001</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>8651</v>
+        <v>8141</v>
       </c>
       <c r="B715" t="n">
-        <v>37960001</v>
+        <v>37770001</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>7731</v>
+        <v>8141</v>
       </c>
       <c r="B716" t="n">
-        <v>35750001</v>
+        <v>37220001</v>
       </c>
       <c r="C716" t="n">
         <v>1</v>
@@ -8317,10 +8317,10 @@
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>8813</v>
+        <v>8141</v>
       </c>
       <c r="B717" t="n">
-        <v>36470001</v>
+        <v>37430001</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -8328,10 +8328,10 @@
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>8813</v>
+        <v>8651</v>
       </c>
       <c r="B718" t="n">
-        <v>37900001</v>
+        <v>37960001</v>
       </c>
       <c r="C718" t="n">
         <v>1</v>
@@ -8339,10 +8339,10 @@
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>8692</v>
+        <v>7731</v>
       </c>
       <c r="B719" t="n">
-        <v>36550001</v>
+        <v>35750001</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>8692</v>
+        <v>8813</v>
       </c>
       <c r="B720" t="n">
-        <v>37870001</v>
+        <v>36470001</v>
       </c>
       <c r="C720" t="n">
         <v>1</v>
@@ -8361,10 +8361,10 @@
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>8131</v>
+        <v>8813</v>
       </c>
       <c r="B721" t="n">
-        <v>37240001</v>
+        <v>37900001</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -8372,10 +8372,10 @@
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>7041</v>
+        <v>8692</v>
       </c>
       <c r="B722" t="n">
-        <v>37810001</v>
+        <v>36550001</v>
       </c>
       <c r="C722" t="n">
         <v>1</v>
@@ -8383,10 +8383,10 @@
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>8143</v>
+        <v>8692</v>
       </c>
       <c r="B723" t="n">
-        <v>17940001</v>
+        <v>37870001</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -8394,10 +8394,10 @@
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>8143</v>
+        <v>8131</v>
       </c>
       <c r="B724" t="n">
-        <v>37840001</v>
+        <v>37240001</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -8405,10 +8405,10 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>8143</v>
+        <v>7041</v>
       </c>
       <c r="B725" t="n">
-        <v>37480001</v>
+        <v>37810001</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -8416,10 +8416,10 @@
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>8671</v>
+        <v>8143</v>
       </c>
       <c r="B726" t="n">
-        <v>36480001</v>
+        <v>17940001</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -8427,10 +8427,10 @@
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>8694</v>
+        <v>8143</v>
       </c>
       <c r="B727" t="n">
-        <v>36520001</v>
+        <v>37840001</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -8438,10 +8438,10 @@
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>8674</v>
+        <v>8143</v>
       </c>
       <c r="B728" t="n">
-        <v>38230001</v>
+        <v>37480001</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>8811</v>
+        <v>8671</v>
       </c>
       <c r="B729" t="n">
-        <v>17910001</v>
+        <v>36480001</v>
       </c>
       <c r="C729" t="n">
         <v>1</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>8833</v>
+        <v>8694</v>
       </c>
       <c r="B730" t="n">
-        <v>35670001</v>
+        <v>36520001</v>
       </c>
       <c r="C730" t="n">
         <v>1</v>
@@ -8471,10 +8471,10 @@
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>8833</v>
+        <v>8674</v>
       </c>
       <c r="B731" t="n">
-        <v>37910001</v>
+        <v>38230001</v>
       </c>
       <c r="C731" t="n">
         <v>1</v>
@@ -8482,10 +8482,10 @@
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>7824</v>
+        <v>8811</v>
       </c>
       <c r="B732" t="n">
-        <v>35760001</v>
+        <v>17910001</v>
       </c>
       <c r="C732" t="n">
         <v>1</v>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>7824</v>
+        <v>8833</v>
       </c>
       <c r="B733" t="n">
-        <v>36390001</v>
+        <v>35670001</v>
       </c>
       <c r="C733" t="n">
         <v>1</v>
@@ -8504,10 +8504,10 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>8814</v>
+        <v>8833</v>
       </c>
       <c r="B734" t="n">
-        <v>36400001</v>
+        <v>37910001</v>
       </c>
       <c r="C734" t="n">
         <v>1</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>7823</v>
+        <v>7824</v>
       </c>
       <c r="B735" t="n">
-        <v>36510001</v>
+        <v>35760001</v>
       </c>
       <c r="C735" t="n">
         <v>1</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>7331</v>
+        <v>7824</v>
       </c>
       <c r="B736" t="n">
-        <v>36530001</v>
+        <v>36390001</v>
       </c>
       <c r="C736" t="n">
         <v>1</v>
@@ -8537,10 +8537,10 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>7331</v>
+        <v>8814</v>
       </c>
       <c r="B737" t="n">
-        <v>37540001</v>
+        <v>36400001</v>
       </c>
       <c r="C737" t="n">
         <v>1</v>
@@ -8548,10 +8548,10 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>8511</v>
+        <v>7823</v>
       </c>
       <c r="B738" t="n">
-        <v>37090001</v>
+        <v>36510001</v>
       </c>
       <c r="C738" t="n">
         <v>1</v>
@@ -8559,10 +8559,10 @@
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>8812</v>
+        <v>7331</v>
       </c>
       <c r="B739" t="n">
-        <v>37460001</v>
+        <v>36530001</v>
       </c>
       <c r="C739" t="n">
         <v>1</v>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>8812</v>
+        <v>7331</v>
       </c>
       <c r="B740" t="n">
-        <v>36540001</v>
+        <v>37540001</v>
       </c>
       <c r="C740" t="n">
         <v>1</v>
@@ -8581,10 +8581,10 @@
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>8812</v>
+        <v>8511</v>
       </c>
       <c r="B741" t="n">
-        <v>37950001</v>
+        <v>37090001</v>
       </c>
       <c r="C741" t="n">
         <v>1</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>8881</v>
+        <v>8812</v>
       </c>
       <c r="B742" t="n">
-        <v>37520001</v>
+        <v>37460001</v>
       </c>
       <c r="C742" t="n">
         <v>1</v>
@@ -8603,10 +8603,10 @@
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>7821</v>
+        <v>8812</v>
       </c>
       <c r="B743" t="n">
-        <v>37150001</v>
+        <v>36540001</v>
       </c>
       <c r="C743" t="n">
         <v>1</v>
@@ -8614,10 +8614,10 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>7831</v>
+        <v>8812</v>
       </c>
       <c r="B744" t="n">
-        <v>35740001</v>
+        <v>37950001</v>
       </c>
       <c r="C744" t="n">
         <v>1</v>
@@ -8625,10 +8625,10 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>7341</v>
+        <v>8881</v>
       </c>
       <c r="B745" t="n">
-        <v>36030001</v>
+        <v>37520001</v>
       </c>
       <c r="C745" t="n">
         <v>1</v>
@@ -8636,10 +8636,10 @@
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>7811</v>
+        <v>7821</v>
       </c>
       <c r="B746" t="n">
-        <v>37630001</v>
+        <v>37150001</v>
       </c>
       <c r="C746" t="n">
         <v>1</v>
@@ -8647,10 +8647,10 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>8144</v>
+        <v>7831</v>
       </c>
       <c r="B747" t="n">
-        <v>37640001</v>
+        <v>35740001</v>
       </c>
       <c r="C747" t="n">
         <v>1</v>
@@ -8658,12 +8658,45 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
+        <v>7341</v>
+      </c>
+      <c r="B748" t="n">
+        <v>36030001</v>
+      </c>
+      <c r="C748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>7811</v>
+      </c>
+      <c r="B749" t="n">
+        <v>37630001</v>
+      </c>
+      <c r="C749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>8144</v>
+      </c>
+      <c r="B750" t="n">
+        <v>37640001</v>
+      </c>
+      <c r="C750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
         <v>8111</v>
       </c>
-      <c r="B748" t="n">
+      <c r="B751" t="n">
         <v>37660001</v>
       </c>
-      <c r="C748" t="n">
+      <c r="C751" t="n">
         <v>1</v>
       </c>
     </row>
